--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_atmos.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="751">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -159,6 +159,9 @@
     <t>cmip6.atmos.key_properties.overview.model_family</t>
   </si>
   <si>
+    <t>AGCM</t>
+  </si>
+  <si>
     <t>1.1.4 - Basic Approximations</t>
   </si>
   <si>
@@ -171,6 +174,12 @@
     <t>cmip6.atmos.key_properties.overview.basic_approximations</t>
   </si>
   <si>
+    <t>Hydrostatic</t>
+  </si>
+  <si>
+    <t>Primitive equations</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
   </si>
   <si>
     <t>cmip6.atmos.key_properties.timestepping.timestep_shortwave_radiative_transfer</t>
+  </si>
+  <si>
+    <t>3600</t>
   </si>
   <si>
     <t>1.3.3 - Timestep Longwave Radiative Transfer</t>
@@ -2969,10 +2981,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2981,10 +2993,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2993,12 +3005,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -3015,7 +3027,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3027,7 +3039,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3035,7 +3047,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -3052,7 +3064,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -3064,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -3072,7 +3084,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3089,7 +3101,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -3101,7 +3113,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3109,7 +3121,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -3126,37 +3138,37 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3165,12 +3177,12 @@
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="8" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>30</v>
@@ -3187,19 +3199,19 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
@@ -3207,7 +3219,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>30</v>
@@ -3224,29 +3236,29 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>30</v>
@@ -3263,29 +3275,29 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C36" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>30</v>
@@ -3302,7 +3314,7 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C40" s="11" t="b">
         <v>1</v>
@@ -3314,17 +3326,17 @@
         <v>42</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1">
       <c r="B41" s="13" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="8" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>30</v>
@@ -3341,7 +3353,7 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C44" s="11" t="b">
         <v>1</v>
@@ -3353,20 +3365,20 @@
         <v>42</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1">
       <c r="B45" s="13" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3375,12 +3387,12 @@
     </row>
     <row r="49" spans="2:6" ht="24" customHeight="1">
       <c r="B49" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1">
       <c r="B51" s="8" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>30</v>
@@ -3397,19 +3409,19 @@
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C52" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="24" customHeight="1">
@@ -3417,7 +3429,7 @@
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>30</v>
@@ -3434,29 +3446,29 @@
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C56" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>30</v>
@@ -3473,34 +3485,34 @@
     </row>
     <row r="60" spans="2:6" ht="24" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C60" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>30</v>
@@ -3517,7 +3529,7 @@
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C65" s="11" t="b">
         <v>1</v>
@@ -3529,17 +3541,17 @@
         <v>42</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="8" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>30</v>
@@ -3556,7 +3568,7 @@
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C69" s="11" t="b">
         <v>1</v>
@@ -3568,12 +3580,12 @@
         <v>42</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -3632,10 +3644,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3644,10 +3656,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3656,12 +3668,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -3678,7 +3690,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3690,7 +3702,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3698,10 +3710,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3710,12 +3722,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3732,19 +3744,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3752,10 +3764,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3764,12 +3776,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -3786,7 +3798,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -3798,17 +3810,17 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -3825,19 +3837,19 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -3847,7 +3859,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -3864,7 +3876,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -3876,7 +3888,7 @@
         <v>35</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -3884,10 +3896,10 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3896,12 +3908,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -3918,7 +3930,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -3930,17 +3942,17 @@
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -3957,7 +3969,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -3966,10 +3978,10 @@
         <v>26</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -3979,7 +3991,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -3996,7 +4008,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -4008,7 +4020,7 @@
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -4016,7 +4028,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -4033,7 +4045,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -4045,20 +4057,20 @@
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4067,12 +4079,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -4089,7 +4101,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -4098,10 +4110,10 @@
         <v>26</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -4154,10 +4166,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4166,10 +4178,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4178,12 +4190,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4200,7 +4212,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4212,7 +4224,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4220,10 +4232,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4232,12 +4244,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -4254,7 +4266,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -4266,12 +4278,12 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +4298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4436,11 +4448,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -4457,448 +4471,457 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1">
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1">
+      <c r="B28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1">
+      <c r="B32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1">
+      <c r="B35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="B40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="B44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" customHeight="1">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1">
+      <c r="B49" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1">
+      <c r="B51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="B52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="24" customHeight="1">
+      <c r="B53" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1">
+      <c r="B60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" ht="24" customHeight="1">
+      <c r="B65" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24" customHeight="1">
+      <c r="B68" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="24" customHeight="1">
+      <c r="B69" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24" customHeight="1">
+      <c r="B71" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="24" customHeight="1">
+      <c r="B72" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1">
-      <c r="B30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1">
-      <c r="B35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1">
-      <c r="B42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1">
-      <c r="B48" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1">
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="B51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="B55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1">
-      <c r="B64" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="24" customHeight="1">
-      <c r="B68" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="24" customHeight="1">
-      <c r="B72" s="13"/>
+      <c r="F72" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="24" customHeight="1">
+      <c r="B73" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -4908,16 +4931,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>"Primitive equations,Non-hydrostatic,Anelastic,Boussinesq,Hydrostatic,Quasi-hydrostatic,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
       <formula1>"Present day,Modified"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"Related to ice sheets,Related to tectonics,Modified mean,Modified variance if taken into account in model (cf gravity waves)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4941,10 +4964,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4953,10 +4976,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4965,12 +4988,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4987,7 +5010,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4999,7 +5022,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5007,10 +5030,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5019,12 +5042,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -5041,7 +5064,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5053,17 +5076,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5080,7 +5103,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -5092,17 +5115,17 @@
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -5119,7 +5142,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -5131,7 +5154,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -5139,7 +5162,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -5156,29 +5179,29 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -5195,7 +5218,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -5207,7 +5230,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -5215,10 +5238,10 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -5227,12 +5250,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -5249,19 +5272,19 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -5308,10 +5331,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5320,10 +5343,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5332,12 +5355,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -5354,7 +5377,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -5366,7 +5389,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5374,7 +5397,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -5391,19 +5414,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -5411,7 +5434,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -5428,7 +5451,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5440,17 +5463,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5467,37 +5490,37 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5506,12 +5529,12 @@
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>30</v>
@@ -5528,7 +5551,7 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>1</v>
@@ -5540,17 +5563,17 @@
         <v>42</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>30</v>
@@ -5567,7 +5590,7 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>1</v>
@@ -5579,17 +5602,17 @@
         <v>35</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>30</v>
@@ -5606,7 +5629,7 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C36" s="11" t="b">
         <v>1</v>
@@ -5618,20 +5641,20 @@
         <v>35</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -5640,12 +5663,12 @@
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1">
       <c r="B41" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>30</v>
@@ -5662,19 +5685,19 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C44" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1">
@@ -5682,10 +5705,10 @@
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -5694,12 +5717,12 @@
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
       <c r="B49" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>30</v>
@@ -5716,29 +5739,29 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C52" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>30</v>
@@ -5755,7 +5778,7 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C56" s="11" t="b">
         <v>1</v>
@@ -5767,20 +5790,20 @@
         <v>42</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -5789,12 +5812,12 @@
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1">
       <c r="B61" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>30</v>
@@ -5811,29 +5834,29 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C64" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>30</v>
@@ -5850,29 +5873,29 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C68" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>30</v>
@@ -5889,29 +5912,29 @@
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C72" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1">
       <c r="B73" s="13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>30</v>
@@ -5928,7 +5951,7 @@
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
       <c r="B76" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C76" s="11" t="b">
         <v>1</v>
@@ -5940,7 +5963,7 @@
         <v>42</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24" customHeight="1">
@@ -5948,10 +5971,10 @@
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5960,12 +5983,12 @@
     </row>
     <row r="81" spans="2:6" ht="24" customHeight="1">
       <c r="B81" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>30</v>
@@ -5982,19 +6005,19 @@
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
       <c r="B84" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C84" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="24" customHeight="1">
@@ -6002,7 +6025,7 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>30</v>
@@ -6019,29 +6042,29 @@
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
       <c r="B88" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C88" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="24" customHeight="1">
       <c r="B91" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>30</v>
@@ -6058,7 +6081,7 @@
     </row>
     <row r="92" spans="2:6" ht="24" customHeight="1">
       <c r="B92" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C92" s="11" t="b">
         <v>1</v>
@@ -6070,17 +6093,17 @@
         <v>42</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="24" customHeight="1">
       <c r="B93" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="24" customHeight="1">
       <c r="B95" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>30</v>
@@ -6097,29 +6120,29 @@
     </row>
     <row r="96" spans="2:6" ht="24" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C96" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="24" customHeight="1">
       <c r="B97" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>30</v>
@@ -6136,7 +6159,7 @@
     </row>
     <row r="100" spans="2:6" ht="24" customHeight="1">
       <c r="B100" s="10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C100" s="11" t="b">
         <v>1</v>
@@ -6148,7 +6171,7 @@
         <v>42</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="24" customHeight="1">
@@ -6219,10 +6242,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6231,10 +6254,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6243,12 +6266,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -6265,52 +6288,52 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6319,12 +6342,12 @@
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -6341,7 +6364,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -6353,7 +6376,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -6361,7 +6384,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -6378,19 +6401,19 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -6398,7 +6421,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -6415,7 +6438,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -6427,17 +6450,17 @@
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -6454,19 +6477,19 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -6474,7 +6497,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -6491,7 +6514,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -6500,10 +6523,10 @@
         <v>26</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -6513,10 +6536,10 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6525,12 +6548,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -6547,19 +6570,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -6567,7 +6590,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -6584,19 +6607,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -6604,7 +6627,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -6621,19 +6644,19 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -6641,10 +6664,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6653,12 +6676,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -6675,19 +6698,19 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -6695,7 +6718,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -6712,19 +6735,19 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -6732,7 +6755,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -6749,19 +6772,19 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
@@ -6769,10 +6792,10 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6781,12 +6804,12 @@
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -6803,19 +6826,19 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -6823,7 +6846,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -6840,19 +6863,19 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -6860,7 +6883,7 @@
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>30</v>
@@ -6877,19 +6900,19 @@
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
@@ -6897,10 +6920,10 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6909,12 +6932,12 @@
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
       <c r="B88" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>30</v>
@@ -6931,7 +6954,7 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -6943,7 +6966,7 @@
         <v>42</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
@@ -6951,10 +6974,10 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6963,12 +6986,12 @@
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
       <c r="B96" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>30</v>
@@ -6985,19 +7008,19 @@
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
@@ -7005,7 +7028,7 @@
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>30</v>
@@ -7022,19 +7045,19 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -7042,7 +7065,7 @@
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>30</v>
@@ -7059,19 +7082,19 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C107" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
@@ -7079,10 +7102,10 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -7091,12 +7114,12 @@
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
       <c r="B112" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>30</v>
@@ -7113,19 +7136,19 @@
     </row>
     <row r="115" spans="1:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="24" customHeight="1">
@@ -7133,10 +7156,10 @@
     </row>
     <row r="119" spans="1:6" ht="24" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -7145,12 +7168,12 @@
     </row>
     <row r="120" spans="1:6" ht="24" customHeight="1">
       <c r="B120" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>30</v>
@@ -7167,7 +7190,7 @@
     </row>
     <row r="123" spans="1:6" ht="24" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C123" s="11" t="b">
         <v>1</v>
@@ -7179,7 +7202,7 @@
         <v>35</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="24" customHeight="1">
@@ -7187,7 +7210,7 @@
     </row>
     <row r="126" spans="1:6" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>30</v>
@@ -7204,19 +7227,19 @@
     </row>
     <row r="127" spans="1:6" ht="24" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C127" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="24" customHeight="1">
@@ -7224,7 +7247,7 @@
     </row>
     <row r="130" spans="1:6" ht="24" customHeight="1">
       <c r="B130" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>30</v>
@@ -7241,7 +7264,7 @@
     </row>
     <row r="131" spans="1:6" ht="24" customHeight="1">
       <c r="B131" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C131" s="11" t="b">
         <v>1</v>
@@ -7253,17 +7276,17 @@
         <v>42</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="24" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>30</v>
@@ -7280,29 +7303,29 @@
     </row>
     <row r="135" spans="1:6" ht="24" customHeight="1">
       <c r="B135" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C135" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="24" customHeight="1">
       <c r="B136" s="13" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="24" customHeight="1">
       <c r="B138" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>30</v>
@@ -7319,7 +7342,7 @@
     </row>
     <row r="139" spans="1:6" ht="24" customHeight="1">
       <c r="B139" s="10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C139" s="11" t="b">
         <v>1</v>
@@ -7328,10 +7351,10 @@
         <v>26</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="24" customHeight="1">
@@ -7341,10 +7364,10 @@
     </row>
     <row r="143" spans="1:6" ht="24" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -7353,12 +7376,12 @@
     </row>
     <row r="144" spans="1:6" ht="24" customHeight="1">
       <c r="B144" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>30</v>
@@ -7375,19 +7398,19 @@
     </row>
     <row r="147" spans="1:6" ht="24" customHeight="1">
       <c r="B147" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C147" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="24" customHeight="1">
@@ -7395,7 +7418,7 @@
     </row>
     <row r="150" spans="1:6" ht="24" customHeight="1">
       <c r="B150" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>30</v>
@@ -7412,19 +7435,19 @@
     </row>
     <row r="151" spans="1:6" ht="24" customHeight="1">
       <c r="B151" s="10" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C151" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="24" customHeight="1">
@@ -7432,7 +7455,7 @@
     </row>
     <row r="154" spans="1:6" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>30</v>
@@ -7449,19 +7472,19 @@
     </row>
     <row r="155" spans="1:6" ht="24" customHeight="1">
       <c r="B155" s="10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C155" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="24" customHeight="1">
@@ -7469,10 +7492,10 @@
     </row>
     <row r="159" spans="1:6" ht="24" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -7481,12 +7504,12 @@
     </row>
     <row r="160" spans="1:6" ht="24" customHeight="1">
       <c r="B160" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>30</v>
@@ -7503,19 +7526,19 @@
     </row>
     <row r="163" spans="1:6" ht="24" customHeight="1">
       <c r="B163" s="10" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C163" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="24" customHeight="1">
@@ -7523,7 +7546,7 @@
     </row>
     <row r="166" spans="1:6" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>30</v>
@@ -7540,19 +7563,19 @@
     </row>
     <row r="167" spans="1:6" ht="24" customHeight="1">
       <c r="B167" s="10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C167" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="24" customHeight="1">
@@ -7560,7 +7583,7 @@
     </row>
     <row r="170" spans="1:6" ht="24" customHeight="1">
       <c r="B170" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>30</v>
@@ -7577,19 +7600,19 @@
     </row>
     <row r="171" spans="1:6" ht="24" customHeight="1">
       <c r="B171" s="10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C171" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="24" customHeight="1">
@@ -7597,10 +7620,10 @@
     </row>
     <row r="175" spans="1:6" ht="24" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -7609,12 +7632,12 @@
     </row>
     <row r="176" spans="1:6" ht="24" customHeight="1">
       <c r="B176" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>30</v>
@@ -7631,19 +7654,19 @@
     </row>
     <row r="179" spans="1:6" ht="24" customHeight="1">
       <c r="B179" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C179" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="24" customHeight="1">
@@ -7651,7 +7674,7 @@
     </row>
     <row r="182" spans="1:6" ht="24" customHeight="1">
       <c r="B182" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>30</v>
@@ -7668,19 +7691,19 @@
     </row>
     <row r="183" spans="1:6" ht="24" customHeight="1">
       <c r="B183" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C183" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="24" customHeight="1">
@@ -7688,7 +7711,7 @@
     </row>
     <row r="186" spans="1:6" ht="24" customHeight="1">
       <c r="B186" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>30</v>
@@ -7705,19 +7728,19 @@
     </row>
     <row r="187" spans="1:6" ht="24" customHeight="1">
       <c r="B187" s="10" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C187" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E187" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="24" customHeight="1">
@@ -7725,10 +7748,10 @@
     </row>
     <row r="191" spans="1:6" ht="24" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -7737,12 +7760,12 @@
     </row>
     <row r="192" spans="1:6" ht="24" customHeight="1">
       <c r="B192" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="24" customHeight="1">
       <c r="B194" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>30</v>
@@ -7759,7 +7782,7 @@
     </row>
     <row r="195" spans="1:6" ht="24" customHeight="1">
       <c r="B195" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C195" s="11" t="b">
         <v>1</v>
@@ -7771,7 +7794,7 @@
         <v>42</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="24" customHeight="1">
@@ -7779,10 +7802,10 @@
     </row>
     <row r="199" spans="1:6" ht="24" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -7791,12 +7814,12 @@
     </row>
     <row r="200" spans="1:6" ht="24" customHeight="1">
       <c r="B200" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="24" customHeight="1">
       <c r="B202" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>30</v>
@@ -7813,19 +7836,19 @@
     </row>
     <row r="203" spans="1:6" ht="24" customHeight="1">
       <c r="B203" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C203" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="24" customHeight="1">
@@ -7833,7 +7856,7 @@
     </row>
     <row r="206" spans="1:6" ht="24" customHeight="1">
       <c r="B206" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>30</v>
@@ -7850,19 +7873,19 @@
     </row>
     <row r="207" spans="1:6" ht="24" customHeight="1">
       <c r="B207" s="10" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C207" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="24" customHeight="1">
@@ -7870,7 +7893,7 @@
     </row>
     <row r="210" spans="1:6" ht="24" customHeight="1">
       <c r="B210" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>30</v>
@@ -7887,19 +7910,19 @@
     </row>
     <row r="211" spans="1:6" ht="24" customHeight="1">
       <c r="B211" s="10" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C211" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E211" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="24" customHeight="1">
@@ -7907,10 +7930,10 @@
     </row>
     <row r="215" spans="1:6" ht="24" customHeight="1">
       <c r="A215" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7919,12 +7942,12 @@
     </row>
     <row r="216" spans="1:6" ht="24" customHeight="1">
       <c r="B216" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="24" customHeight="1">
       <c r="B218" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>30</v>
@@ -7941,19 +7964,19 @@
     </row>
     <row r="219" spans="1:6" ht="24" customHeight="1">
       <c r="B219" s="10" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C219" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="24" customHeight="1">
@@ -8084,10 +8107,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8096,10 +8119,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8108,12 +8131,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8130,7 +8153,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8142,7 +8165,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8150,10 +8173,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8162,12 +8185,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8184,19 +8207,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -8204,7 +8227,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8221,29 +8244,29 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -8260,7 +8283,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -8269,10 +8292,10 @@
         <v>26</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -8280,7 +8303,7 @@
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -8297,7 +8320,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -8306,10 +8329,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -8319,10 +8342,10 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -8331,12 +8354,12 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -8353,29 +8376,29 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -8392,29 +8415,29 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -8431,29 +8454,29 @@
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -8470,59 +8493,59 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="13" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>30</v>
@@ -8539,19 +8562,19 @@
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C57" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
@@ -8559,10 +8582,10 @@
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -8571,12 +8594,12 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>30</v>
@@ -8593,19 +8616,19 @@
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C65" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
@@ -8613,7 +8636,7 @@
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>30</v>
@@ -8630,19 +8653,19 @@
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C69" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
@@ -8650,7 +8673,7 @@
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>30</v>
@@ -8667,7 +8690,7 @@
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C73" s="11" t="b">
         <v>1</v>
@@ -8679,17 +8702,17 @@
         <v>42</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1">
       <c r="B74" s="13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>30</v>
@@ -8706,19 +8729,19 @@
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1">
       <c r="B77" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C77" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1">
@@ -8726,7 +8749,7 @@
     </row>
     <row r="80" spans="2:6" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>30</v>
@@ -8743,19 +8766,19 @@
     </row>
     <row r="81" spans="2:6" ht="24" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C81" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
@@ -8817,10 +8840,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8829,10 +8852,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8841,12 +8864,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8863,7 +8886,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8875,7 +8898,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8883,10 +8906,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8895,12 +8918,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8917,29 +8940,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8956,37 +8979,37 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -8995,12 +9018,12 @@
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="8" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>30</v>
@@ -9017,29 +9040,29 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>30</v>
@@ -9056,39 +9079,39 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -9120,10 +9143,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9132,10 +9155,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9144,12 +9167,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9166,7 +9189,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9178,7 +9201,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -9186,7 +9209,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -9203,19 +9226,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -9223,7 +9246,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -9240,19 +9263,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -9260,7 +9283,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -9277,7 +9300,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -9286,10 +9309,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -9299,7 +9322,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -9316,29 +9339,29 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -9355,7 +9378,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -9364,10 +9387,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -9375,7 +9398,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -9392,7 +9415,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -9401,10 +9424,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -9412,7 +9435,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -9429,19 +9452,19 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -9449,10 +9472,10 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -9461,12 +9484,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -9483,19 +9506,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -9503,7 +9526,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -9520,19 +9543,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -9540,10 +9563,10 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -9552,12 +9575,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -9574,7 +9597,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -9586,17 +9609,17 @@
         <v>42</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -9613,7 +9636,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -9625,17 +9648,17 @@
         <v>35</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -9652,7 +9675,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -9661,10 +9684,10 @@
         <v>26</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -9674,7 +9697,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -9691,32 +9714,32 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -9725,12 +9748,12 @@
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -9747,7 +9770,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -9759,7 +9782,7 @@
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -9767,7 +9790,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -9784,7 +9807,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -9796,7 +9819,7 @@
         <v>35</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -9804,7 +9827,7 @@
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>30</v>
@@ -9821,7 +9844,7 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
@@ -9830,10 +9853,10 @@
         <v>26</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
@@ -9841,7 +9864,7 @@
     </row>
     <row r="86" spans="2:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>30</v>
@@ -9858,19 +9881,19 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
@@ -9938,10 +9961,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9950,10 +9973,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9962,12 +9985,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9984,7 +10007,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9996,7 +10019,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -10004,10 +10027,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -10016,12 +10039,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -10038,34 +10061,34 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>30</v>
@@ -10082,7 +10105,7 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C20" s="11" t="b">
         <v>1</v>
@@ -10094,20 +10117,20 @@
         <v>42</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -10116,12 +10139,12 @@
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>30</v>
@@ -10138,7 +10161,7 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>1</v>
@@ -10150,17 +10173,17 @@
         <v>42</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>30</v>
@@ -10177,7 +10200,7 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>1</v>
@@ -10186,10 +10209,10 @@
         <v>26</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1">
@@ -10199,7 +10222,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>30</v>
@@ -10216,7 +10239,7 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C36" s="11" t="b">
         <v>1</v>
@@ -10225,10 +10248,10 @@
         <v>26</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1">
@@ -10238,7 +10261,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>30</v>
@@ -10255,7 +10278,7 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C40" s="11" t="b">
         <v>1</v>
@@ -10264,10 +10287,10 @@
         <v>26</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1">
@@ -10277,10 +10300,10 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -10289,12 +10312,12 @@
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1">
       <c r="B45" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="8" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>30</v>
@@ -10311,7 +10334,7 @@
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="B48" s="10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C48" s="11" t="b">
         <v>1</v>
@@ -10320,10 +10343,10 @@
         <v>26</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
@@ -10333,7 +10356,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="8" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>30</v>
@@ -10350,7 +10373,7 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C52" s="11" t="b">
         <v>1</v>
@@ -10362,17 +10385,17 @@
         <v>42</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="13" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>30</v>
@@ -10389,7 +10412,7 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C56" s="11" t="b">
         <v>1</v>
@@ -10398,10 +10421,10 @@
         <v>26</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
@@ -10411,7 +10434,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>30</v>
@@ -10428,7 +10451,7 @@
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C60" s="11" t="b">
         <v>1</v>
@@ -10437,10 +10460,10 @@
         <v>26</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1">
@@ -10450,10 +10473,10 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -10462,12 +10485,12 @@
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1">
       <c r="B65" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>30</v>
@@ -10484,7 +10507,7 @@
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C68" s="11" t="b">
         <v>1</v>
@@ -10496,17 +10519,17 @@
         <v>42</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="8" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>30</v>
@@ -10523,24 +10546,24 @@
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
       <c r="B72" s="10" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C72" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1">
       <c r="B73" s="13" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_atmos.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>IPSL-CM6A-LR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_atmos.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1093">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -207,8 +207,8 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>The atmospheric general circulation model LMDZ5A is based on a finite-difference formulation of the primitive equations of meteorology (Sadourny and Laval, 1984) on a staggered and stretchable longitude-latitude grid (the Z of LMDZ standing for Zoom). Water vapor, liquid water and atmospheric trace species are advected with a monotonic second order finite volume scheme (Van Leer, 1977; Hourdin and Armengaud, 1999). In the vertical, the model uses a classical so-called hybrid  sigma−pressure coordinate. _x000D_
-_x000D_
+    <t>The atmospheric general circulation model LMDZ5A is based on a finite-difference formulation of the primitive equations of meteorology (Sadourny and Laval, 1984) on a staggered and stretchable longitude-latitude grid (the Z of LMDZ standing for Zoom). Water vapor, liquid water and atmospheric trace species are advected with a monotonic second order finite volume scheme (Van Leer, 1977; Hourdin and Armengaud, 1999). In the vertical, the model uses a classical so-called hybrid  sigma−pressure coordinate. _x005F_x000D_
+_x005F_x000D_
 In the LMDZ5A version, (Hourdin et al, 2012) the physical parametrization are very close  to that of the previous LMDZ4 version used for CMIP3. The radiation scheme is inherited from the European Center for Medium-Range Weather Forecasts. The dynamical effects of the subgrid-scale orography are parametrized according to Lott (1999). Turbulent transport in the planetary boundary layer is treated as a vertical eddy diffusion (Laval et al, 1981) with counter-gradient correction and dry convective adjustment. The surface boundary layer is treated according to Louis (1979). Cloud cover and cloud water content are computed using a statistical scheme (Bony and Emanuel, 2001). For deep convection, the LMDZ5A version uses the ”episodic mixing and buoyancy sorting” scheme originally developed by Emanuel (1991). With respect to the previous LMDZ4 version, the number of layers has been increased from 19 to 39, with 15 levels above 20km and a top at about the same altitude as the stratospheric LMDZ4-L50 version (Lott et al, 2005). The horizontal has also changed, with an increased number of point in latitude to shift the jets poleward (Guemas and Codron 2011). At Low Resolution (LR), the LMDZ5A model has 95x96 points in latitude and longitude corresponding to a resolution of 1.875° ×3.75°.</t>
   </si>
   <si>
@@ -227,10 +227,10 @@
     <t>cmip6.atmos.key_properties.model_family</t>
   </si>
   <si>
-    <t>AGCM: Atmospheric General Circulation Model</t>
-  </si>
-  <si>
-    <t>ARCM: Atmospheric Regional Climate Model</t>
+    <t>AGCM</t>
+  </si>
+  <si>
+    <t>ARCM</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -251,25 +251,19 @@
     <t>Hydrostatic</t>
   </si>
   <si>
-    <t>primitive equations</t>
-  </si>
-  <si>
-    <t>non-hydrostatic</t>
-  </si>
-  <si>
-    <t>anelastic</t>
+    <t>Primitive equations</t>
+  </si>
+  <si>
+    <t>Non-hydrostatic</t>
+  </si>
+  <si>
+    <t>Anelastic</t>
   </si>
   <si>
     <t>Boussinesq</t>
   </si>
   <si>
-    <t>hydrostatic</t>
-  </si>
-  <si>
-    <t>quasi-hydrostatic</t>
-  </si>
-  <si>
-    <t>Primitive equations</t>
+    <t>Quasi-hydrostatic</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -416,10 +410,10 @@
     <t>Other: present day</t>
   </si>
   <si>
-    <t>fixed: present day</t>
-  </si>
-  <si>
-    <t>fixed: modified: provide details of modification below</t>
+    <t>Fixed: present day</t>
+  </si>
+  <si>
+    <t>Fixed: modified</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.2 </t>
@@ -434,16 +428,16 @@
     <t>cmip6.atmos.key_properties.orography.modified</t>
   </si>
   <si>
-    <t>related to ice sheets</t>
-  </si>
-  <si>
-    <t>related to tectonics</t>
-  </si>
-  <si>
-    <t>modified mean</t>
-  </si>
-  <si>
-    <t>modified variance if taken into account in model (cf gravity waves)</t>
+    <t>Related to ice sheets</t>
+  </si>
+  <si>
+    <t>Related to tectonics</t>
+  </si>
+  <si>
+    <t>Modified mean</t>
+  </si>
+  <si>
+    <t>Modified variance if taken into account in model (cf gravity waves)</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.3 </t>
@@ -566,10 +560,7 @@
     <t>Fixed grid</t>
   </si>
   <si>
-    <t>spectral</t>
-  </si>
-  <si>
-    <t>fixed grid</t>
+    <t>Spectral</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -587,16 +578,13 @@
     <t>Finite volumes</t>
   </si>
   <si>
-    <t>finite elements</t>
-  </si>
-  <si>
-    <t>finite volumes</t>
-  </si>
-  <si>
-    <t>finite difference</t>
-  </si>
-  <si>
-    <t>centered finite difference</t>
+    <t>Finite elements</t>
+  </si>
+  <si>
+    <t>Finite difference</t>
+  </si>
+  <si>
+    <t>Centered finite difference</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -611,13 +599,13 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_order</t>
   </si>
   <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>third</t>
-  </si>
-  <si>
-    <t>fourth</t>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>Fourth</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.4 </t>
@@ -635,13 +623,10 @@
     <t>Filter</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>pole rotation</t>
-  </si>
-  <si>
-    <t>artificial island</t>
+    <t>Pole rotation</t>
+  </si>
+  <si>
+    <t>Artificial island</t>
   </si>
   <si>
     <t>2.1.2.5 *</t>
@@ -689,19 +674,19 @@
     <t>cmip6.atmos.grid.discretisation.vertical.coordinate_type</t>
   </si>
   <si>
-    <t>isobaric: vertical coordinate on pressure levels</t>
-  </si>
-  <si>
-    <t>sigma: allows vertical coordinate to follow model terrain</t>
-  </si>
-  <si>
-    <t>hybrid sigma-pressure: sigma system near terrain and isobaric above</t>
-  </si>
-  <si>
-    <t>hybrid pressure</t>
-  </si>
-  <si>
-    <t>vertically lagrangian</t>
+    <t>Isobaric</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Hybrid sigma-pressure</t>
+  </si>
+  <si>
+    <t>Hybrid pressure</t>
+  </si>
+  <si>
+    <t>Vertically lagrangian</t>
   </si>
   <si>
     <t>3.1.1</t>
@@ -749,19 +734,16 @@
     <t>Adams-Bashforth</t>
   </si>
   <si>
-    <t>explicit</t>
-  </si>
-  <si>
-    <t>implicit</t>
-  </si>
-  <si>
-    <t>semi-implicit</t>
-  </si>
-  <si>
-    <t>leap frog</t>
-  </si>
-  <si>
-    <t>multi-step</t>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Semi-implicit</t>
+  </si>
+  <si>
+    <t>Multi-step</t>
   </si>
   <si>
     <t>Runge Kutta fifth order</t>
@@ -788,45 +770,39 @@
     <t>Potential temperature</t>
   </si>
   <si>
-    <t>surface pressure</t>
-  </si>
-  <si>
-    <t>wind components</t>
-  </si>
-  <si>
-    <t>divergence/curl</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>potential temperature</t>
-  </si>
-  <si>
-    <t>total water</t>
-  </si>
-  <si>
-    <t>water vapour</t>
-  </si>
-  <si>
-    <t>water liquid</t>
-  </si>
-  <si>
-    <t>water ice</t>
-  </si>
-  <si>
-    <t>total water moments</t>
-  </si>
-  <si>
-    <t>clouds</t>
-  </si>
-  <si>
-    <t>radiation</t>
+    <t>Surface pressure</t>
+  </si>
+  <si>
+    <t>Wind components</t>
+  </si>
+  <si>
+    <t>Divergence/curl</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Total water</t>
+  </si>
+  <si>
+    <t>Water vapour</t>
+  </si>
+  <si>
+    <t>Water liquid</t>
+  </si>
+  <si>
+    <t>Water ice</t>
   </si>
   <si>
     <t>Total water moments</t>
   </si>
   <si>
+    <t>Clouds</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
     <t>3.2.1</t>
   </si>
   <si>
@@ -851,10 +827,7 @@
     <t>Sponge layer</t>
   </si>
   <si>
-    <t>sponge layer</t>
-  </si>
-  <si>
-    <t>radiation boundary condition</t>
+    <t>Radiation boundary condition</t>
   </si>
   <si>
     <t>3.2.1.2 *</t>
@@ -935,10 +908,7 @@
     <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_method</t>
   </si>
   <si>
-    <t>iterated Laplacian</t>
-  </si>
-  <si>
-    <t>bi-harmonic</t>
+    <t>Bi-harmonic</t>
   </si>
   <si>
     <t>3.4.2</t>
@@ -992,37 +962,34 @@
     <t>Eulerian</t>
   </si>
   <si>
-    <t>modified Euler</t>
+    <t>Modified Euler</t>
   </si>
   <si>
     <t>Lagrangian</t>
   </si>
   <si>
-    <t>semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>cubic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>quintic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>mass-conserving</t>
-  </si>
-  <si>
-    <t>finite volume</t>
-  </si>
-  <si>
-    <t>flux-corrected</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>quadratic</t>
-  </si>
-  <si>
-    <t>quartic</t>
+    <t>Semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>Cubic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>Quintic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>Mass-conserving</t>
+  </si>
+  <si>
+    <t>Flux-corrected</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
+  <si>
+    <t>Quartic</t>
   </si>
   <si>
     <t>3.4.2.3 *</t>
@@ -1040,10 +1007,10 @@
     <t>Other: water vapor, condensed water, aerosols</t>
   </si>
   <si>
-    <t>dry mass</t>
-  </si>
-  <si>
-    <t>tracer mass</t>
+    <t>Dry mass</t>
+  </si>
+  <si>
+    <t>Tracer mass</t>
   </si>
   <si>
     <t>3.4.2.4 *</t>
@@ -1058,7 +1025,7 @@
     <t>cmip6.atmos.dynamical_core.advection.tracers.conservation_method</t>
   </si>
   <si>
-    <t>conservation fixer</t>
+    <t>Conservation fixer</t>
   </si>
   <si>
     <t>Priestley algorithm</t>
@@ -1109,13 +1076,10 @@
     <t>4th order</t>
   </si>
   <si>
-    <t>cell-centred</t>
-  </si>
-  <si>
-    <t>staggered grid</t>
-  </si>
-  <si>
-    <t>semi-staggered grid</t>
+    <t>Cell-centred</t>
+  </si>
+  <si>
+    <t>Semi-staggered grid</t>
   </si>
   <si>
     <t>3.4.3.3 *</t>
@@ -1181,9 +1145,6 @@
     <t>4.1.1</t>
   </si>
   <si>
-    <t>Radiation</t>
-  </si>
-  <si>
     <t>Characteristics of the atmosphere radiation process</t>
   </si>
   <si>
@@ -1217,55 +1178,43 @@
     <t>cmip6.atmos.radiation.aerosols</t>
   </si>
   <si>
-    <t>Other: black carbon / soot</t>
-  </si>
-  <si>
-    <t>sulphate</t>
-  </si>
-  <si>
-    <t>nitrate</t>
-  </si>
-  <si>
-    <t>sea salt</t>
-  </si>
-  <si>
-    <t>dust</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>BC: black carbon / soot</t>
-  </si>
-  <si>
-    <t>SOA: secondary organic aerosols</t>
-  </si>
-  <si>
-    <t>POM: particulate organic matter</t>
-  </si>
-  <si>
-    <t>polar stratospheric ice</t>
-  </si>
-  <si>
-    <t>NAT: nitric acid trihydrate</t>
-  </si>
-  <si>
-    <t>NAD: nitric acid dihydrate</t>
-  </si>
-  <si>
-    <t>STS: supercooled ternary solution aerosol particle</t>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Sulphate</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
   </si>
   <si>
     <t>Dust</t>
   </si>
   <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Sulphate</t>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>POM</t>
+  </si>
+  <si>
+    <t>Polar stratospheric ice</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>STS</t>
   </si>
   <si>
     <t>4.2.1</t>
@@ -1301,13 +1250,10 @@
     <t>Wide-band model</t>
   </si>
   <si>
-    <t>wide-band model</t>
-  </si>
-  <si>
-    <t>correlated-k</t>
-  </si>
-  <si>
-    <t>exponential sum fitting</t>
+    <t>Correlated-k</t>
+  </si>
+  <si>
+    <t>Exponential sum fitting</t>
   </si>
   <si>
     <t>4.2.1.3 *</t>
@@ -1322,19 +1268,19 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.transport_calculation</t>
   </si>
   <si>
-    <t>two-stream</t>
-  </si>
-  <si>
-    <t>layer interaction</t>
-  </si>
-  <si>
-    <t>bulk: highly parameterised methods that use bulk expressions</t>
-  </si>
-  <si>
-    <t>adaptive: exploits spatial and temporal correlations in optical characteristics</t>
-  </si>
-  <si>
-    <t>multi-stream</t>
+    <t>Two-stream</t>
+  </si>
+  <si>
+    <t>Layer interaction</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Adaptive</t>
+  </si>
+  <si>
+    <t>Multi-stream</t>
   </si>
   <si>
     <t>4.2.1.4 *</t>
@@ -1361,10 +1307,10 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.general_interactions</t>
   </si>
   <si>
-    <t>emission/absorption,</t>
-  </si>
-  <si>
-    <t>scattering</t>
+    <t>Emission/absorption,</t>
+  </si>
+  <si>
+    <t>Scattering</t>
   </si>
   <si>
     <t>4.3.1</t>
@@ -1388,28 +1334,28 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.greenhouse_gas_complexity</t>
   </si>
   <si>
-    <t>CO2: Carbon Dioxide</t>
-  </si>
-  <si>
-    <t>CH4: Methane</t>
-  </si>
-  <si>
-    <t>N2O: Nitrous Oxide</t>
-  </si>
-  <si>
-    <t>CFC-11 eq: Summarize the effect of non CO2, CH4, N2O and CFC-12 gases with an equivalence concentration of CFC-11</t>
-  </si>
-  <si>
-    <t>CFC-12 eq: Summarize the radiative effect of the Ozone Depleating Substances, ODSs, with a CFC-12 equivalence concentration</t>
-  </si>
-  <si>
-    <t>HFC-134a eq: Summarize the radiative effect of other fluorinated gases with a HFC-134a equivalence concentration</t>
-  </si>
-  <si>
-    <t>Explicit ODSs: Explicit representation of Ozone Depleting Substances e.g. CFCs, HCFCs and Halons</t>
-  </si>
-  <si>
-    <t>Explicit other fluorinated gases: Explicit representation of other fluorinated gases e.g. HFCs and PFCs</t>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>CFC-11 eq</t>
+  </si>
+  <si>
+    <t>CFC-12 eq</t>
+  </si>
+  <si>
+    <t>HFC-134a eq</t>
+  </si>
+  <si>
+    <t>Explicit ODSs</t>
+  </si>
+  <si>
+    <t>Explicit other fluorinated gases</t>
   </si>
   <si>
     <t>O3</t>
@@ -1430,55 +1376,55 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.ODS</t>
   </si>
   <si>
-    <t>CFC-12: CFC</t>
-  </si>
-  <si>
-    <t>CFC-11: CFC</t>
-  </si>
-  <si>
-    <t>CFC-113: CFC</t>
-  </si>
-  <si>
-    <t>CFC-114: CFC</t>
-  </si>
-  <si>
-    <t>CFC-115: CFC</t>
-  </si>
-  <si>
-    <t>HCFC-22: HCFC</t>
-  </si>
-  <si>
-    <t>HCFC-141b: HCFC</t>
-  </si>
-  <si>
-    <t>HCFC-142b: HCFC</t>
-  </si>
-  <si>
-    <t>Halon-1211: halon</t>
-  </si>
-  <si>
-    <t>Halon-1301: halon</t>
-  </si>
-  <si>
-    <t>Halon-2402: halon</t>
-  </si>
-  <si>
-    <t>methyl chloroform: CH3CCl3</t>
-  </si>
-  <si>
-    <t>carbon tetrachloride: CCl4</t>
-  </si>
-  <si>
-    <t>methyl chloride: CH3Cl</t>
-  </si>
-  <si>
-    <t>methylene chloride: CH2Cl2</t>
-  </si>
-  <si>
-    <t>chloroform: CHCl3</t>
-  </si>
-  <si>
-    <t>methyl bromide: Ch3Br</t>
+    <t>CFC-12</t>
+  </si>
+  <si>
+    <t>CFC-11</t>
+  </si>
+  <si>
+    <t>CFC-113</t>
+  </si>
+  <si>
+    <t>CFC-114</t>
+  </si>
+  <si>
+    <t>CFC-115</t>
+  </si>
+  <si>
+    <t>HCFC-22</t>
+  </si>
+  <si>
+    <t>HCFC-141b</t>
+  </si>
+  <si>
+    <t>HCFC-142b</t>
+  </si>
+  <si>
+    <t>Halon-1211</t>
+  </si>
+  <si>
+    <t>Halon-1301</t>
+  </si>
+  <si>
+    <t>Halon-2402</t>
+  </si>
+  <si>
+    <t>Methyl chloroform</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride</t>
+  </si>
+  <si>
+    <t>Methyl chloride</t>
+  </si>
+  <si>
+    <t>Methylene chloride</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>Methyl bromide</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.1.3 </t>
@@ -1493,64 +1439,64 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.other_flourinated_gases</t>
   </si>
   <si>
-    <t>HFC-134a: HFC</t>
-  </si>
-  <si>
-    <t>HFC-23: HFC</t>
-  </si>
-  <si>
-    <t>HFC-32: HFC</t>
-  </si>
-  <si>
-    <t>HFC-125: HFC</t>
-  </si>
-  <si>
-    <t>HFC-143a: HFC</t>
-  </si>
-  <si>
-    <t>HFC-152a: HFC</t>
-  </si>
-  <si>
-    <t>HFC-227ea: HFC</t>
-  </si>
-  <si>
-    <t>HFC-236fa: HFC</t>
-  </si>
-  <si>
-    <t>HFC-245fa: HFC</t>
-  </si>
-  <si>
-    <t>HFC-365mfc: HFC</t>
-  </si>
-  <si>
-    <t>HFC-43-10mee: HFC</t>
-  </si>
-  <si>
-    <t>CF4: PFC</t>
-  </si>
-  <si>
-    <t>C2F6: PFC</t>
-  </si>
-  <si>
-    <t>C3F8: PFC</t>
-  </si>
-  <si>
-    <t>C4F10: PFC</t>
-  </si>
-  <si>
-    <t>C5F12: PFC</t>
-  </si>
-  <si>
-    <t>C6F14: PFC</t>
-  </si>
-  <si>
-    <t>C7F16: PFC</t>
-  </si>
-  <si>
-    <t>C8F18: PFC</t>
-  </si>
-  <si>
-    <t>c-C4F8: PFC</t>
+    <t>HFC-134a</t>
+  </si>
+  <si>
+    <t>HFC-23</t>
+  </si>
+  <si>
+    <t>HFC-32</t>
+  </si>
+  <si>
+    <t>HFC-125</t>
+  </si>
+  <si>
+    <t>HFC-143a</t>
+  </si>
+  <si>
+    <t>HFC-152a</t>
+  </si>
+  <si>
+    <t>HFC-227ea</t>
+  </si>
+  <si>
+    <t>HFC-236fa</t>
+  </si>
+  <si>
+    <t>HFC-245fa</t>
+  </si>
+  <si>
+    <t>HFC-365mfc</t>
+  </si>
+  <si>
+    <t>HFC-43-10mee</t>
+  </si>
+  <si>
+    <t>CF4</t>
+  </si>
+  <si>
+    <t>C2F6</t>
+  </si>
+  <si>
+    <t>C3F8</t>
+  </si>
+  <si>
+    <t>C4F10</t>
+  </si>
+  <si>
+    <t>C5F12</t>
+  </si>
+  <si>
+    <t>C6F14</t>
+  </si>
+  <si>
+    <t>C7F16</t>
+  </si>
+  <si>
+    <t>C8F18</t>
+  </si>
+  <si>
+    <t>C-C4F8</t>
   </si>
   <si>
     <t>NF3</t>
@@ -1583,25 +1529,25 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.physical_representation</t>
   </si>
   <si>
-    <t>bi-modal size distribution: small mode diameters: a few tens of microns, large mode diameters: typically hundreds of microns</t>
-  </si>
-  <si>
-    <t>ensemble of ice crystals: complex shapes represented with an ensemble of symmetric shapes</t>
-  </si>
-  <si>
-    <t>mean projected area: randomly oriented irregular ice crystals present a greater mean projected area than spheres</t>
-  </si>
-  <si>
-    <t>ice water path: Integrated ice water path through the cloud kg m-2</t>
-  </si>
-  <si>
-    <t>crystal asymmetry</t>
-  </si>
-  <si>
-    <t>crystal aspect ratio</t>
-  </si>
-  <si>
-    <t>effective crystal radius</t>
+    <t>Bi-modal size distribution</t>
+  </si>
+  <si>
+    <t>Ensemble of ice crystals</t>
+  </si>
+  <si>
+    <t>Mean projected area</t>
+  </si>
+  <si>
+    <t>Ice water path</t>
+  </si>
+  <si>
+    <t>Crystal asymmetry</t>
+  </si>
+  <si>
+    <t>Crystal aspect ratio</t>
+  </si>
+  <si>
+    <t>Effective crystal radius</t>
   </si>
   <si>
     <t>4.4.1.2 *</t>
@@ -1616,19 +1562,19 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.optical_methods</t>
   </si>
   <si>
-    <t>T-matrix: For non-spherical particles</t>
-  </si>
-  <si>
-    <t>geometric optics: For non-spherical particles</t>
-  </si>
-  <si>
-    <t>finite difference time domain (FDTD): For non-spherical particles</t>
-  </si>
-  <si>
-    <t>Mie theory: For spherical particles</t>
-  </si>
-  <si>
-    <t>anomalous diffraction approximation</t>
+    <t>T-matrix</t>
+  </si>
+  <si>
+    <t>Geometric optics</t>
+  </si>
+  <si>
+    <t>Finite difference time domain (FDTD)</t>
+  </si>
+  <si>
+    <t>Mie theory</t>
+  </si>
+  <si>
+    <t>Anomalous diffraction approximation</t>
   </si>
   <si>
     <t>4.5.1</t>
@@ -1649,16 +1595,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_liquid.physical_representation</t>
   </si>
   <si>
-    <t>cloud droplet number concentration: CDNC</t>
-  </si>
-  <si>
-    <t>effective cloud droplet radii</t>
-  </si>
-  <si>
-    <t>droplet size distribution</t>
-  </si>
-  <si>
-    <t>liquid water path: Integrated liquid water path through the cloud kg m-2</t>
+    <t>Cloud droplet number concentration</t>
+  </si>
+  <si>
+    <t>Effective cloud droplet radii</t>
+  </si>
+  <si>
+    <t>Droplet size distribution</t>
+  </si>
+  <si>
+    <t>Liquid water path</t>
   </si>
   <si>
     <t>4.5.1.2 *</t>
@@ -1691,13 +1637,13 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_inhomogeneity.cloud_inhomogeneity</t>
   </si>
   <si>
-    <t>Monte Carlo Independent Column Approximation: McICA</t>
-  </si>
-  <si>
-    <t>Triplecloud: Regions of clear sky, optically thin cloud and optically thick cloud, Shonk et al 2010</t>
-  </si>
-  <si>
-    <t>analytic</t>
+    <t>Monte Carlo Independent Column Approximation</t>
+  </si>
+  <si>
+    <t>Triplecloud</t>
+  </si>
+  <si>
+    <t>Analytic</t>
   </si>
   <si>
     <t>4.7.1</t>
@@ -1718,22 +1664,22 @@
     <t>cmip6.atmos.radiation.shortwave_aerosols.physical_representation</t>
   </si>
   <si>
-    <t>number concentration</t>
-  </si>
-  <si>
-    <t>effective radii</t>
-  </si>
-  <si>
-    <t>size distribution</t>
-  </si>
-  <si>
-    <t>asymmetry</t>
-  </si>
-  <si>
-    <t>aspect ratio</t>
-  </si>
-  <si>
-    <t>mixing state: For shortwave radiative interaction</t>
+    <t>Number concentration</t>
+  </si>
+  <si>
+    <t>Effective radii</t>
+  </si>
+  <si>
+    <t>Size distribution</t>
+  </si>
+  <si>
+    <t>Asymmetry</t>
+  </si>
+  <si>
+    <t>Aspect ratio</t>
+  </si>
+  <si>
+    <t>Mixing state</t>
   </si>
   <si>
     <t>4.7.1.2 *</t>
@@ -1781,9 +1727,6 @@
     <t>cmip6.atmos.radiation.longwave_radiation.transport_calculation</t>
   </si>
   <si>
-    <t>Layer interaction</t>
-  </si>
-  <si>
     <t>4.8.1.4 *</t>
   </si>
   <si>
@@ -1985,7 +1928,7 @@
     <t>Holtslag-Boville</t>
   </si>
   <si>
-    <t>EDMF: Combined Eddy Diffusivity Mass-Flux</t>
+    <t>EDMF</t>
   </si>
   <si>
     <t>5.2.1.2 *</t>
@@ -2006,16 +1949,16 @@
     <t>TKE coupled with water</t>
   </si>
   <si>
-    <t>vertical profile of Kz</t>
-  </si>
-  <si>
-    <t>non-local diffusion</t>
+    <t>Vertical profile of Kz</t>
+  </si>
+  <si>
+    <t>Non-local diffusion</t>
   </si>
   <si>
     <t>Monin-Obukhov similarity</t>
   </si>
   <si>
-    <t>Coastal Buddy Scheme: separate components for coastal near surface winds over ocean and land</t>
+    <t>Coastal Buddy Scheme</t>
   </si>
   <si>
     <t>Coupled with convection</t>
@@ -2024,7 +1967,7 @@
     <t>Coupled with gravity waves</t>
   </si>
   <si>
-    <t>Depth capped at cloud base: boundary layer capped at cloud base when convection is diagnosed</t>
+    <t>Depth capped at cloud base</t>
   </si>
   <si>
     <t>5.2.1.3 *</t>
@@ -2084,13 +2027,10 @@
     <t>Mass-flux</t>
   </si>
   <si>
-    <t>mass-flux</t>
-  </si>
-  <si>
-    <t>adjustment</t>
-  </si>
-  <si>
-    <t>plume ensemble: Zhang-McFarlane</t>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Plume ensemble</t>
   </si>
   <si>
     <t>5.3.1.3 *</t>
@@ -2102,19 +2042,16 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.scheme_method</t>
   </si>
   <si>
-    <t>CAPE: Mass flux determined by CAPE, convectively available potential energy.</t>
-  </si>
-  <si>
-    <t>bulk: A bulk mass flux scheme is used</t>
-  </si>
-  <si>
-    <t>ensemble: Summation over an ensemble of convective clouds with differing characteristics</t>
-  </si>
-  <si>
-    <t>CAPE/WFN based: CAPE-Cloud Work Function: Based on the quasi-equilibrium of the free troposphere</t>
-  </si>
-  <si>
-    <t>TKE/CIN based: TKE-Convective Inhibition: Based on the quasi-equilibrium of the boundary layer</t>
+    <t>CAPE</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>CAPE/WFN based</t>
+  </si>
+  <si>
+    <t>TKE/CIN based</t>
   </si>
   <si>
     <t>5.3.1.4 *</t>
@@ -2132,49 +2069,28 @@
     <t>Convective momentum transport</t>
   </si>
   <si>
-    <t>vertical momentum transport</t>
-  </si>
-  <si>
-    <t>convective momentum transport</t>
-  </si>
-  <si>
-    <t>entrainment</t>
-  </si>
-  <si>
-    <t>detrainment</t>
-  </si>
-  <si>
-    <t>penetrative convection</t>
-  </si>
-  <si>
-    <t>updrafts</t>
-  </si>
-  <si>
-    <t>downdrafts</t>
-  </si>
-  <si>
-    <t>radiative effect of anvils</t>
-  </si>
-  <si>
-    <t>re-evaporation of convective precipitation</t>
+    <t>Vertical momentum transport</t>
+  </si>
+  <si>
+    <t>Entrainment</t>
   </si>
   <si>
     <t>Detrainment</t>
   </si>
   <si>
-    <t>Entrainment</t>
-  </si>
-  <si>
     <t>Penetrative convection</t>
   </si>
   <si>
+    <t>Updrafts</t>
+  </si>
+  <si>
+    <t>Downdrafts</t>
+  </si>
+  <si>
     <t>Radiative effect of anvils</t>
   </si>
   <si>
-    <t>Updrafts</t>
-  </si>
-  <si>
-    <t>Vertical momentum transport</t>
+    <t>Re-evaporation of convective precipitation</t>
   </si>
   <si>
     <t xml:space="preserve">5.3.1.5 </t>
@@ -2189,13 +2105,13 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.microphysics</t>
   </si>
   <si>
-    <t>tuning parameter based</t>
-  </si>
-  <si>
-    <t>single moment</t>
-  </si>
-  <si>
-    <t>two moment</t>
+    <t>Tuning parameter based</t>
+  </si>
+  <si>
+    <t>Single moment</t>
+  </si>
+  <si>
+    <t>Two moment</t>
   </si>
   <si>
     <t>5.4.1</t>
@@ -2225,7 +2141,7 @@
     <t>cmip6.atmos.turbulence_convection.shallow_convection.scheme_type</t>
   </si>
   <si>
-    <t>cumulus-capped boundary layer</t>
+    <t>Cumulus-capped boundary layer</t>
   </si>
   <si>
     <t>5.4.1.3 *</t>
@@ -2240,13 +2156,10 @@
     <t>Same as deep (unified)</t>
   </si>
   <si>
-    <t>same as deep (unified)</t>
-  </si>
-  <si>
-    <t>included in boundary layer turbulence</t>
-  </si>
-  <si>
-    <t>separate diagnosis: Deep and Shallow convection schemes use different thermodynamic closure criteria</t>
+    <t>Included in boundary layer turbulence</t>
+  </si>
+  <si>
+    <t>Separate diagnosis</t>
   </si>
   <si>
     <t>5.4.1.4 *</t>
@@ -2330,21 +2243,15 @@
     <t>Liquid rain</t>
   </si>
   <si>
-    <t>liquid rain</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>hail</t>
-  </si>
-  <si>
-    <t>graupel</t>
-  </si>
-  <si>
     <t>Snow</t>
   </si>
   <si>
+    <t>Hail</t>
+  </si>
+  <si>
+    <t>Graupel</t>
+  </si>
+  <si>
     <t>6.3.1</t>
   </si>
   <si>
@@ -2375,42 +2282,30 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_cloud_microphysics.processes</t>
   </si>
   <si>
+    <t>Mixed phase</t>
+  </si>
+  <si>
     <t>Cloud droplets</t>
   </si>
   <si>
-    <t>mixed phase</t>
-  </si>
-  <si>
-    <t>cloud droplets</t>
-  </si>
-  <si>
-    <t>cloud ice</t>
-  </si>
-  <si>
-    <t>ice nucleation</t>
-  </si>
-  <si>
-    <t>water vapour deposition</t>
-  </si>
-  <si>
-    <t>effect of raindrops</t>
-  </si>
-  <si>
-    <t>effect of snow</t>
-  </si>
-  <si>
-    <t>effect of graupel</t>
-  </si>
-  <si>
     <t>Cloud ice</t>
   </si>
   <si>
-    <t>Mixed phase</t>
+    <t>Ice nucleation</t>
   </si>
   <si>
     <t>Water vapour deposition</t>
   </si>
   <si>
+    <t>Effect of raindrops</t>
+  </si>
+  <si>
+    <t>Effect of snow</t>
+  </si>
+  <si>
+    <t>Effect of graupel</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -2447,10 +2342,10 @@
     <t>cmip6.atmos.cloud_scheme.scheme_type</t>
   </si>
   <si>
-    <t>prognostic</t>
-  </si>
-  <si>
-    <t>diagnostic</t>
+    <t>Prognostic</t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
   </si>
   <si>
     <t>7.1.1.4 *</t>
@@ -2480,7 +2375,7 @@
     <t>Other: detrainement, entrainement, cmt, penetrative convection, updrafts, downdrafts</t>
   </si>
   <si>
-    <t>bulk cloud</t>
+    <t>Bulk cloud</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.6 </t>
@@ -2492,19 +2387,16 @@
     <t>cmip6.atmos.cloud_scheme.prognostic_variables</t>
   </si>
   <si>
-    <t>cloud amount</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>cloud droplet number concentration: To document the use of two-moment cloud microphysics schemes</t>
-  </si>
-  <si>
-    <t>ice crystal number concentration: To document the use of two-moment cloud microphysics schemes</t>
+    <t>Cloud amount</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Ice crystal number concentration</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.7 </t>
@@ -2519,22 +2411,22 @@
     <t>cmip6.atmos.cloud_scheme.atmos_coupling</t>
   </si>
   <si>
-    <t>atmosphere_radiation</t>
-  </si>
-  <si>
-    <t>atmosphere_microphysics_precipitation</t>
-  </si>
-  <si>
-    <t>atmosphere_turbulence_convection</t>
-  </si>
-  <si>
-    <t>atmosphere_gravity_waves</t>
-  </si>
-  <si>
-    <t>atmosphere_natural_forcing</t>
-  </si>
-  <si>
-    <t>atmosphere_observation_simulation</t>
+    <t>Atmosphere_radiation</t>
+  </si>
+  <si>
+    <t>Atmosphere_microphysics_precipitation</t>
+  </si>
+  <si>
+    <t>Atmosphere_turbulence_convection</t>
+  </si>
+  <si>
+    <t>Atmosphere_gravity_waves</t>
+  </si>
+  <si>
+    <t>Atmosphere_natural_forcing</t>
+  </si>
+  <si>
+    <t>Atmosphere_observation_simulation</t>
   </si>
   <si>
     <t>7.2.1</t>
@@ -2558,16 +2450,16 @@
     <t>cmip6.atmos.cloud_scheme.optical_cloud_properties.cloud_overlap_method</t>
   </si>
   <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>maximum-random: combination of maximum and random overlap between clouds</t>
-  </si>
-  <si>
-    <t>exponential</t>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Maximum-random</t>
+  </si>
+  <si>
+    <t>Exponential</t>
   </si>
   <si>
     <t xml:space="preserve">7.2.1.2 </t>
@@ -2597,9 +2489,6 @@
     <t>cmip6.atmos.cloud_scheme.sub_grid_scale_water_distribution.type</t>
   </si>
   <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
     <t>7.3.1.2 *</t>
   </si>
   <si>
@@ -2642,13 +2531,10 @@
     <t>Coupled with deep</t>
   </si>
   <si>
-    <t>coupled with deep</t>
-  </si>
-  <si>
-    <t>coupled with shallow</t>
-  </si>
-  <si>
-    <t>not coupled with convection</t>
+    <t>Coupled with shallow</t>
+  </si>
+  <si>
+    <t>Not coupled with convection</t>
   </si>
   <si>
     <t>7.4.1</t>
@@ -2747,10 +2633,7 @@
     <t>IR brightness</t>
   </si>
   <si>
-    <t>no adjustment</t>
-  </si>
-  <si>
-    <t>visible optical depth</t>
+    <t>No adjustment</t>
   </si>
   <si>
     <t>Visible optical depth</t>
@@ -2771,10 +2654,7 @@
     <t>Lowest altitude level</t>
   </si>
   <si>
-    <t>lowest altitude level</t>
-  </si>
-  <si>
-    <t>highest altitude level</t>
+    <t>Highest altitude level</t>
   </si>
   <si>
     <t>8.3.1</t>
@@ -2876,10 +2756,7 @@
     <t>Space borne</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>space borne</t>
+    <t>Surface</t>
   </si>
   <si>
     <t xml:space="preserve">8.4.1.3 </t>
@@ -2930,10 +2807,7 @@
     <t>Ice spheres</t>
   </si>
   <si>
-    <t>ice spheres</t>
-  </si>
-  <si>
-    <t>ice non-spherical</t>
+    <t>Ice non-spherical</t>
   </si>
   <si>
     <t xml:space="preserve">8.5.1.2 </t>
@@ -2951,9 +2825,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>9.1.1</t>
   </si>
   <si>
@@ -3011,10 +2882,10 @@
     <t>cmip6.atmos.gravity_waves.background</t>
   </si>
   <si>
-    <t>continuous spectrum</t>
-  </si>
-  <si>
-    <t>discrete spectrum</t>
+    <t>Continuous spectrum</t>
+  </si>
+  <si>
+    <t>Discrete spectrum</t>
   </si>
   <si>
     <t>9.1.1.5 *</t>
@@ -3032,18 +2903,12 @@
     <t>Effect on drag</t>
   </si>
   <si>
-    <t>effect on drag</t>
-  </si>
-  <si>
-    <t>effect on lifting</t>
-  </si>
-  <si>
-    <t>enhanced topography: To enhance the generation of long waves in the atmosphere</t>
-  </si>
-  <si>
     <t>Effect on lifting</t>
   </si>
   <si>
+    <t>Enhanced topography</t>
+  </si>
+  <si>
     <t>9.2.1</t>
   </si>
   <si>
@@ -3077,19 +2942,16 @@
     <t>Statistical sub-grid scale variance</t>
   </si>
   <si>
-    <t>linear mountain waves</t>
-  </si>
-  <si>
-    <t>hydraulic jump</t>
-  </si>
-  <si>
-    <t>envelope orography</t>
-  </si>
-  <si>
-    <t>low level flow blocking</t>
-  </si>
-  <si>
-    <t>statistical sub-grid scale variance</t>
+    <t>Linear mountain waves</t>
+  </si>
+  <si>
+    <t>Hydraulic jump</t>
+  </si>
+  <si>
+    <t>Envelope orography</t>
+  </si>
+  <si>
+    <t>Low level flow blocking</t>
   </si>
   <si>
     <t>9.2.1.3 *</t>
@@ -3107,10 +2969,7 @@
     <t>More than two cardinal directions</t>
   </si>
   <si>
-    <t>non-linear calculation</t>
-  </si>
-  <si>
-    <t>more than two cardinal directions</t>
+    <t>Non-linear calculation</t>
   </si>
   <si>
     <t>9.2.1.4 *</t>
@@ -3128,13 +2987,10 @@
     <t>Linear theory</t>
   </si>
   <si>
-    <t>linear theory</t>
-  </si>
-  <si>
-    <t>non-linear theory</t>
-  </si>
-  <si>
-    <t>includes boundary layer ducting</t>
+    <t>Non-linear theory</t>
+  </si>
+  <si>
+    <t>Includes boundary layer ducting</t>
   </si>
   <si>
     <t>9.2.1.5 *</t>
@@ -3152,13 +3008,10 @@
     <t>Total wave</t>
   </si>
   <si>
-    <t>total wave</t>
-  </si>
-  <si>
-    <t>single wave</t>
-  </si>
-  <si>
-    <t>wave saturation vs Richardson number</t>
+    <t>Single wave</t>
+  </si>
+  <si>
+    <t>Wave saturation vs Richardson number</t>
   </si>
   <si>
     <t>9.3.1</t>
@@ -3191,13 +3044,10 @@
     <t>Background spectrum</t>
   </si>
   <si>
-    <t>convection</t>
-  </si>
-  <si>
-    <t>precipitation</t>
-  </si>
-  <si>
-    <t>background spectrum</t>
+    <t>Convection</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
   </si>
   <si>
     <t>9.3.1.3 *</t>
@@ -3212,12 +3062,6 @@
     <t>Spatially dependent</t>
   </si>
   <si>
-    <t>spatially dependent</t>
-  </si>
-  <si>
-    <t>temporally dependent</t>
-  </si>
-  <si>
     <t>Temporally dependent</t>
   </si>
   <si>
@@ -3230,9 +3074,6 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.propagation_scheme</t>
   </si>
   <si>
-    <t>Non-linear theory</t>
-  </si>
-  <si>
     <t>9.3.1.5 *</t>
   </si>
   <si>
@@ -3242,9 +3083,6 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.dissipation_scheme</t>
   </si>
   <si>
-    <t>Spectral</t>
-  </si>
-  <si>
     <t>10.1.1</t>
   </si>
   <si>
@@ -3293,13 +3131,13 @@
     <t>cmip6.atmos.natural_forcing.solar_pathways.pathways</t>
   </si>
   <si>
-    <t>SW radiation: Shortwave solar spectral irradiance.</t>
-  </si>
-  <si>
-    <t>precipitating energetic particles: Precipitating energetic particles from the sun (predominantly protons) and the magnetosphere (predominantly electrons) affect the ionization levels in the polar middle and upper atmosphere, leading to significant changes of the chemical composition</t>
-  </si>
-  <si>
-    <t>cosmic rays: Cosmic rays are the main source of ionization in the troposphere and lower stratosphere.</t>
+    <t>SW radiation</t>
+  </si>
+  <si>
+    <t>Precipitating energetic particles</t>
+  </si>
+  <si>
+    <t>Cosmic rays</t>
   </si>
   <si>
     <t>10.3.1</t>
@@ -3323,10 +3161,7 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>transient</t>
+    <t>Transient</t>
   </si>
   <si>
     <t xml:space="preserve">10.3.1.2 </t>
@@ -3467,13 +3302,10 @@
     <t>cmip6.atmos.natural_forcing.volcanoes_treatment.volcanoes_implementation</t>
   </si>
   <si>
-    <t>Other: via high frequency solar contant anomaly</t>
-  </si>
-  <si>
-    <t>high frequency solar constant anomaly</t>
-  </si>
-  <si>
-    <t>stratospheric aerosols optical thickness</t>
+    <t>High frequency solar constant anomaly</t>
+  </si>
+  <si>
+    <t>Stratospheric aerosols optical thickness</t>
   </si>
 </sst>
 </file>
@@ -4134,20 +3966,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>889</v>
+        <v>851</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>890</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>891</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>892</v>
+        <v>854</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4158,10 +3990,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>893</v>
+        <v>855</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>894</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4169,7 +4001,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>895</v>
+        <v>857</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4180,10 +4012,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4196,23 +4028,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>899</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>902</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4220,10 +4052,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>903</v>
+        <v>865</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>904</v>
+        <v>866</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4233,16 +4065,16 @@
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>905</v>
+        <v>867</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>906</v>
+        <v>868</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>905</v>
+        <v>867</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>907</v>
+        <v>869</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>68</v>
@@ -4250,16 +4082,16 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>908</v>
+        <v>869</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>906</v>
+        <v>868</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>905</v>
+        <v>867</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>907</v>
+        <v>869</v>
       </c>
       <c r="AD21" s="6" t="s">
         <v>68</v>
@@ -4267,10 +4099,10 @@
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>909</v>
+        <v>870</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>910</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -4278,21 +4110,21 @@
         <v>63</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>911</v>
+        <v>872</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>912</v>
+        <v>873</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>913</v>
+        <v>874</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>914</v>
+        <v>874</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>68</v>
@@ -4300,23 +4132,23 @@
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>916</v>
+        <v>876</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>917</v>
+        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>918</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>919</v>
+        <v>879</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>920</v>
+        <v>880</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4324,21 +4156,21 @@
         <v>63</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>921</v>
+        <v>881</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>922</v>
+        <v>882</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>924</v>
+        <v>884</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>68</v>
@@ -4346,21 +4178,21 @@
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>925</v>
+        <v>885</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>926</v>
+        <v>886</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>928</v>
+        <v>888</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
@@ -4370,21 +4202,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>932</v>
+        <v>892</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4394,21 +4226,21 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>933</v>
+        <v>893</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>934</v>
+        <v>894</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4418,34 +4250,34 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>937</v>
+        <v>897</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>938</v>
+        <v>898</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>939</v>
+        <v>899</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>941</v>
+        <v>901</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -4455,10 +4287,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -4466,21 +4298,21 @@
         <v>63</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>946</v>
+        <v>906</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>948</v>
+        <v>908</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>950</v>
+        <v>908</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>68</v>
@@ -4488,21 +4320,21 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>952</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>953</v>
+        <v>912</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>954</v>
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -4512,21 +4344,21 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>955</v>
+        <v>914</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>956</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>957</v>
+        <v>916</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>958</v>
+        <v>917</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
@@ -4536,23 +4368,23 @@
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>959</v>
+        <v>918</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>960</v>
+        <v>919</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>961</v>
+        <v>920</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>962</v>
+        <v>921</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>963</v>
+        <v>922</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -4560,21 +4392,21 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>965</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>966</v>
+        <v>925</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>968</v>
+        <v>926</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>68</v>
@@ -4582,10 +4414,10 @@
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>969</v>
+        <v>927</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>970</v>
+        <v>928</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -4593,10 +4425,10 @@
         <v>63</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>971</v>
+        <v>929</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>972</v>
+        <v>930</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
@@ -4605,14 +4437,12 @@
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>973</v>
-      </c>
+      <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>974</v>
+        <v>931</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>68</v>
@@ -4681,20 +4511,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>975</v>
+        <v>932</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>976</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>977</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>978</v>
+        <v>935</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4705,10 +4535,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>979</v>
+        <v>936</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>980</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4716,7 +4546,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>981</v>
+        <v>938</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4727,10 +4557,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>982</v>
+        <v>939</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>983</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -4743,10 +4573,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>984</v>
+        <v>941</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>985</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -4754,19 +4584,19 @@
         <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>986</v>
+        <v>943</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>987</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>988</v>
+        <v>945</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>989</v>
+        <v>946</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>68</v>
@@ -4774,10 +4604,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>990</v>
+        <v>947</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>991</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4785,19 +4615,19 @@
         <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>992</v>
+        <v>949</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>993</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>994</v>
+        <v>951</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>995</v>
+        <v>952</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>68</v>
@@ -4805,10 +4635,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>996</v>
+        <v>953</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>997</v>
+        <v>954</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4816,10 +4646,10 @@
         <v>63</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>998</v>
+        <v>955</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>999</v>
+        <v>956</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4829,16 +4659,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>1000</v>
+        <v>957</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>1001</v>
+        <v>957</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>1002</v>
+        <v>958</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>1003</v>
+        <v>959</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>68</v>
@@ -4846,16 +4676,16 @@
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>1004</v>
+        <v>958</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>1001</v>
+        <v>957</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>1002</v>
+        <v>958</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>1003</v>
+        <v>959</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>68</v>
@@ -4863,20 +4693,20 @@
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>1005</v>
+        <v>960</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1006</v>
+        <v>961</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>1007</v>
+        <v>962</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>1008</v>
+        <v>963</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>45</v>
@@ -4887,10 +4717,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1009</v>
+        <v>964</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1010</v>
+        <v>965</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -4898,10 +4728,10 @@
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>1011</v>
+        <v>966</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1012</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -4909,10 +4739,10 @@
         <v>63</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1013</v>
+        <v>968</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1014</v>
+        <v>969</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
@@ -4922,22 +4752,22 @@
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>1015</v>
+        <v>970</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>1016</v>
+        <v>971</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>1017</v>
+        <v>972</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>1018</v>
+        <v>973</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>1019</v>
+        <v>974</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="AF38" s="6" t="s">
         <v>68</v>
@@ -4945,10 +4775,10 @@
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>1021</v>
+        <v>975</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1022</v>
+        <v>976</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -4956,10 +4786,10 @@
         <v>63</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1023</v>
+        <v>977</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1024</v>
+        <v>978</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -4969,13 +4799,13 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>1025</v>
+        <v>979</v>
       </c>
       <c r="AA43" s="6" t="s">
-        <v>1026</v>
+        <v>980</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>68</v>
@@ -4983,10 +4813,10 @@
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>1028</v>
+        <v>981</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1029</v>
+        <v>982</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
@@ -4994,24 +4824,24 @@
         <v>63</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1030</v>
+        <v>983</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1031</v>
+        <v>984</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>1032</v>
+        <v>985</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>1033</v>
+        <v>985</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>1034</v>
+        <v>986</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>1035</v>
+        <v>987</v>
       </c>
       <c r="AD47" s="6" t="s">
         <v>68</v>
@@ -5019,10 +4849,10 @@
     </row>
     <row r="49" spans="1:32" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>1036</v>
+        <v>988</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1037</v>
+        <v>989</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="24" customHeight="1">
@@ -5030,30 +4860,30 @@
         <v>63</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1038</v>
+        <v>990</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>1039</v>
+        <v>991</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>1040</v>
+        <v>992</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>1041</v>
+        <v>992</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>1042</v>
+        <v>993</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>1043</v>
+        <v>994</v>
       </c>
       <c r="AF51" s="6" t="s">
         <v>68</v>
@@ -5061,20 +4891,20 @@
     </row>
     <row r="54" spans="1:32" ht="24" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>1044</v>
+        <v>995</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>1045</v>
+        <v>996</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="24" customHeight="1">
       <c r="B55" s="13" t="s">
-        <v>1046</v>
+        <v>997</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>1047</v>
+        <v>998</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>45</v>
@@ -5085,10 +4915,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>1048</v>
+        <v>999</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1049</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="24" customHeight="1">
@@ -5096,10 +4926,10 @@
     </row>
     <row r="61" spans="1:32" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>1012</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="24" customHeight="1">
@@ -5107,10 +4937,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>1051</v>
+        <v>1002</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1052</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="24" customHeight="1">
@@ -5120,16 +4950,16 @@
     </row>
     <row r="64" spans="1:32" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>1053</v>
+        <v>1004</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>1055</v>
+        <v>1006</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>1056</v>
+        <v>1004</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>68</v>
@@ -5137,10 +4967,10 @@
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>1057</v>
+        <v>1007</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>1022</v>
+        <v>976</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -5148,10 +4978,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>1058</v>
+        <v>1008</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1059</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -5161,32 +4991,32 @@
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
       <c r="B69" s="11" t="s">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>1061</v>
+        <v>1010</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>1062</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="B70" s="11" t="s">
-        <v>1063</v>
+        <v>1011</v>
       </c>
       <c r="AA70" s="6" t="s">
-        <v>1061</v>
+        <v>1010</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>1062</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>1064</v>
+        <v>1012</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1029</v>
+        <v>982</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
@@ -5194,21 +5024,21 @@
         <v>63</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1065</v>
+        <v>1013</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1066</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>1067</v>
+        <v>986</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>1033</v>
+        <v>985</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>1034</v>
+        <v>986</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>68</v>
@@ -5216,10 +5046,10 @@
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>1068</v>
+        <v>1015</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1037</v>
+        <v>989</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
@@ -5227,30 +5057,28 @@
         <v>63</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>1069</v>
+        <v>1016</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1070</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>1071</v>
-      </c>
+      <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>1041</v>
+        <v>992</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>1042</v>
+        <v>993</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AE78" s="6" t="s">
-        <v>1043</v>
+        <v>994</v>
       </c>
       <c r="AF78" s="6" t="s">
         <v>68</v>
@@ -5318,20 +5146,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1072</v>
+        <v>1018</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1073</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>1074</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1075</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5342,10 +5170,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1076</v>
+        <v>1022</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1077</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5353,7 +5181,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>1078</v>
+        <v>1024</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5364,10 +5192,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1079</v>
+        <v>1025</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1080</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5380,23 +5208,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1081</v>
+        <v>1027</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1082</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>1083</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>1084</v>
+        <v>1030</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1085</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5404,10 +5232,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1086</v>
+        <v>1032</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1087</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5418,13 +5246,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>1088</v>
+        <v>1034</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1089</v>
+        <v>1035</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1090</v>
+        <v>1036</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>68</v>
@@ -5432,23 +5260,23 @@
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1091</v>
+        <v>1037</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1092</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>1093</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>1094</v>
+        <v>1040</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -5456,40 +5284,40 @@
         <v>63</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1095</v>
+        <v>1041</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1096</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>1097</v>
+        <v>1043</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>1098</v>
+        <v>1043</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>1099</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1100</v>
+        <v>1045</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1101</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1102</v>
+        <v>1047</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1103</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -5499,10 +5327,10 @@
     </row>
     <row r="34" spans="1:28" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>1104</v>
+        <v>1049</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1105</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
@@ -5510,10 +5338,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1106</v>
+        <v>1051</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1107</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
@@ -5521,23 +5349,23 @@
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1108</v>
+        <v>1053</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1109</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>1110</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1111</v>
+        <v>1056</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="24" customHeight="1">
@@ -5545,40 +5373,40 @@
         <v>63</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1112</v>
+        <v>1057</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1113</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>1097</v>
+        <v>1043</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>1098</v>
+        <v>1043</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1099</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>1114</v>
+        <v>1059</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1115</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1116</v>
+        <v>1061</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1117</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
@@ -5588,10 +5416,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1118</v>
+        <v>1063</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1119</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -5599,10 +5427,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1120</v>
+        <v>1065</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1121</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5610,10 +5438,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>1122</v>
+        <v>1067</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1123</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -5621,21 +5449,21 @@
         <v>63</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1124</v>
+        <v>1069</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1125</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>1126</v>
+        <v>1071</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>1126</v>
+        <v>1071</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>1127</v>
+        <v>1072</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>68</v>
@@ -5643,34 +5471,34 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1129</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>1130</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1131</v>
+        <v>1076</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1132</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1133</v>
+        <v>1078</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1134</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -5680,23 +5508,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>1135</v>
+        <v>1080</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1136</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>1137</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1138</v>
+        <v>1083</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1139</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -5704,10 +5532,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1140</v>
+        <v>1085</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1141</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -5720,10 +5548,10 @@
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>1142</v>
+        <v>1087</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1143</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -5731,21 +5559,19 @@
         <v>63</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1144</v>
+        <v>1089</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1145</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="B77" s="11" t="s">
-        <v>1146</v>
-      </c>
+      <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>1147</v>
+        <v>1091</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>1148</v>
+        <v>1092</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>68</v>
@@ -6061,10 +5887,10 @@
         <v>77</v>
       </c>
       <c r="AE25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="AG25" s="6" t="s">
         <v>68</v>
@@ -6072,7 +5898,7 @@
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA26" s="6" t="s">
         <v>74</v>
@@ -6087,10 +5913,10 @@
         <v>77</v>
       </c>
       <c r="AE26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="AG26" s="6" t="s">
         <v>68</v>
@@ -6098,23 +5924,23 @@
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -6122,10 +5948,10 @@
         <v>46</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -6133,10 +5959,10 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -6144,10 +5970,10 @@
         <v>46</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -6155,10 +5981,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -6166,10 +5992,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -6177,21 +6003,21 @@
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -6199,21 +6025,21 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6221,34 +6047,34 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -6258,21 +6084,21 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6280,21 +6106,21 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
@@ -6302,23 +6128,23 @@
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
@@ -6326,21 +6152,21 @@
         <v>63</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB74" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="AA74" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB74" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>68</v>
@@ -6348,10 +6174,10 @@
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
@@ -6359,10 +6185,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
@@ -6373,16 +6199,16 @@
     <row r="79" spans="1:31" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC79" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AB79" s="6" t="s">
+      <c r="AD79" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="AC79" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD79" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AE79" s="6" t="s">
         <v>68</v>
@@ -6390,10 +6216,10 @@
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -6401,10 +6227,10 @@
         <v>46</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -6412,23 +6238,23 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -6436,10 +6262,10 @@
         <v>46</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -6452,10 +6278,10 @@
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -6463,10 +6289,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -6479,10 +6305,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -6490,10 +6316,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -6506,10 +6332,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -6517,10 +6343,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6584,20 +6410,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6608,10 +6434,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6619,7 +6445,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6630,10 +6456,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6646,23 +6472,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -6670,21 +6496,21 @@
         <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>68</v>
@@ -6692,10 +6518,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -6703,35 +6529,35 @@
         <v>63</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD23" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
@@ -6739,22 +6565,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AD27" s="6" t="s">
         <v>68</v>
@@ -6762,10 +6588,10 @@
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
@@ -6773,24 +6599,24 @@
         <v>63</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>68</v>
@@ -6798,10 +6624,10 @@
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -6809,25 +6635,25 @@
         <v>63</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>68</v>
@@ -6835,23 +6661,23 @@
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -6859,10 +6685,10 @@
         <v>63</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
@@ -6873,19 +6699,19 @@
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="11"/>
       <c r="AA44" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AE44" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AF44" s="6" t="s">
         <v>68</v>
@@ -6932,20 +6758,20 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6956,10 +6782,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
@@ -6967,7 +6793,7 @@
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6978,10 +6804,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
@@ -6994,10 +6820,10 @@
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
@@ -7005,42 +6831,42 @@
         <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AA15" s="6" t="s">
+      <c r="AG15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AB15" s="6" t="s">
+      <c r="AH15" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AC15" s="6" t="s">
+      <c r="AI15" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="AJ15" s="6" t="s">
         <v>68</v>
@@ -7048,10 +6874,10 @@
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
@@ -7059,10 +6885,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
@@ -7072,43 +6898,43 @@
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG20" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AH20" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AI20" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AJ20" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AK20" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AE20" s="6" t="s">
+      <c r="AL20" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL20" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="AM20" s="6" t="s">
         <v>68</v>
@@ -7116,43 +6942,43 @@
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AA21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH21" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AI21" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AJ21" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AK21" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AL21" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL21" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="AM21" s="6" t="s">
         <v>68</v>
@@ -7160,23 +6986,23 @@
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
@@ -7184,21 +7010,21 @@
         <v>63</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>68</v>
@@ -7206,10 +7032,10 @@
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
@@ -7217,10 +7043,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -7228,10 +7054,10 @@
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -7239,10 +7065,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
@@ -7250,23 +7076,23 @@
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="13" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -7274,19 +7100,19 @@
         <v>63</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>68</v>
@@ -7294,23 +7120,23 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7318,23 +7144,23 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7342,21 +7168,21 @@
         <v>63</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>68</v>
@@ -7364,23 +7190,23 @@
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7388,30 +7214,30 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:39" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AE65" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AF65" s="6" t="s">
         <v>68</v>
@@ -7419,10 +7245,10 @@
     </row>
     <row r="67" spans="1:39" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="24" customHeight="1">
@@ -7430,10 +7256,10 @@
         <v>63</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:39" ht="24" customHeight="1">
@@ -7443,43 +7269,43 @@
     </row>
     <row r="70" spans="1:39" ht="24" customHeight="1">
       <c r="B70" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA70" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF70" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG70" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH70" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI70" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ70" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK70" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AA70" s="6" t="s">
+      <c r="AL70" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC70" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD70" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF70" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AG70" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH70" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI70" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ70" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK70" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AL70" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="AM70" s="6" t="s">
         <v>68</v>
@@ -7487,10 +7313,10 @@
     </row>
     <row r="72" spans="1:39" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:39" ht="24" customHeight="1">
@@ -7498,10 +7324,10 @@
         <v>63</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:39" ht="24" customHeight="1">
@@ -7511,13 +7337,13 @@
     </row>
     <row r="75" spans="1:39" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>68</v>
@@ -7525,10 +7351,10 @@
     </row>
     <row r="77" spans="1:39" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:39" ht="24" customHeight="1">
@@ -7536,19 +7362,19 @@
         <v>63</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:39" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>68</v>
@@ -7556,23 +7382,23 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7580,22 +7406,22 @@
         <v>63</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AD87" s="6" t="s">
         <v>68</v>
@@ -7603,10 +7429,10 @@
     </row>
     <row r="89" spans="1:32" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
@@ -7614,10 +7440,10 @@
         <v>63</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7627,22 +7453,22 @@
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
       <c r="B92" s="11" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AA92" s="6" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AD92" s="6" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="AE92" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AF92" s="6" t="s">
         <v>68</v>
@@ -7650,10 +7476,10 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
@@ -7661,27 +7487,27 @@
         <v>63</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AE96" s="6" t="s">
         <v>68</v>
@@ -7689,10 +7515,10 @@
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
@@ -7700,10 +7526,10 @@
         <v>63</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
@@ -7713,25 +7539,25 @@
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="11" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AA101" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AB101" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AE101" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AF101" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AG101" s="6" t="s">
         <v>68</v>
@@ -7739,10 +7565,10 @@
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
@@ -7750,16 +7576,16 @@
         <v>63</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="B105" s="11"/>
       <c r="AA105" s="6" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AB105" s="6" t="s">
         <v>68</v>
@@ -7833,20 +7659,20 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>384</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7857,10 +7683,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
@@ -7868,7 +7694,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7879,10 +7705,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
@@ -7895,10 +7721,10 @@
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
@@ -7906,10 +7732,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="24" customHeight="1">
@@ -7919,46 +7745,46 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AN16" s="6" t="s">
         <v>68</v>
@@ -7966,46 +7792,46 @@
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AN17" s="6" t="s">
         <v>68</v>
@@ -8013,46 +7839,46 @@
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AN18" s="6" t="s">
         <v>68</v>
@@ -8060,46 +7886,46 @@
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>68</v>
@@ -8107,46 +7933,46 @@
     </row>
     <row r="20" spans="1:40" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AN20" s="6" t="s">
         <v>68</v>
@@ -8154,20 +7980,20 @@
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>45</v>
@@ -8178,10 +8004,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="24" customHeight="1">
@@ -8189,10 +8015,10 @@
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
@@ -8200,24 +8026,24 @@
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AD32" s="6" t="s">
         <v>68</v>
@@ -8225,10 +8051,10 @@
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -8236,10 +8062,10 @@
         <v>63</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -8250,19 +8076,19 @@
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="AF37" s="6" t="s">
         <v>68</v>
@@ -8270,21 +8096,21 @@
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -8294,10 +8120,10 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
@@ -8305,10 +8131,10 @@
         <v>63</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -8319,10 +8145,10 @@
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>68</v>
@@ -8330,23 +8156,23 @@
     </row>
     <row r="49" spans="1:44" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:44" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:44" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:44" ht="24" customHeight="1">
@@ -8354,10 +8180,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:44" ht="24" customHeight="1">
@@ -8368,34 +8194,34 @@
     <row r="55" spans="1:44" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="AK55" s="6" t="s">
         <v>68</v>
@@ -8403,10 +8229,10 @@
     </row>
     <row r="57" spans="1:44" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:44" ht="24" customHeight="1">
@@ -8414,10 +8240,10 @@
         <v>63</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="24" customHeight="1">
@@ -8428,55 +8254,55 @@
     <row r="60" spans="1:44" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="AJ60" s="6" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="AK60" s="6" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="AL60" s="6" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="AM60" s="6" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="AN60" s="6" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="AO60" s="6" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="AP60" s="6" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="AQ60" s="6" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="AR60" s="6" t="s">
         <v>68</v>
@@ -8484,10 +8310,10 @@
     </row>
     <row r="62" spans="1:44" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="24" customHeight="1">
@@ -8495,10 +8321,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:44" ht="24" customHeight="1">
@@ -8509,73 +8335,73 @@
     <row r="65" spans="1:50" ht="24" customHeight="1">
       <c r="B65" s="11"/>
       <c r="AA65" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF65" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG65" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AH65" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI65" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AJ65" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK65" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL65" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AM65" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AN65" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AO65" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AP65" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ65" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR65" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AS65" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AB65" s="6" t="s">
+      <c r="AT65" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AC65" s="6" t="s">
+      <c r="AU65" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AD65" s="6" t="s">
+      <c r="AV65" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AE65" s="6" t="s">
+      <c r="AW65" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="AF65" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AG65" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH65" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="AI65" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ65" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="AK65" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL65" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM65" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="AN65" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO65" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP65" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="AQ65" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="AR65" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="AS65" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="AT65" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="AU65" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV65" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="AW65" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="AX65" s="6" t="s">
         <v>68</v>
@@ -8583,23 +8409,23 @@
     </row>
     <row r="68" spans="1:50" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="24" customHeight="1">
@@ -8607,10 +8433,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="24" customHeight="1">
@@ -8621,25 +8447,25 @@
     <row r="74" spans="1:50" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AE74" s="6" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="AF74" s="6" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="AG74" s="6" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="AH74" s="6" t="s">
         <v>68</v>
@@ -8647,10 +8473,10 @@
     </row>
     <row r="76" spans="1:50" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="24" customHeight="1">
@@ -8658,10 +8484,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:50" ht="24" customHeight="1">
@@ -8672,19 +8498,19 @@
     <row r="79" spans="1:50" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="AE79" s="6" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="AF79" s="6" t="s">
         <v>68</v>
@@ -8692,23 +8518,23 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
@@ -8716,10 +8542,10 @@
         <v>63</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8730,16 +8556,16 @@
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>68</v>
@@ -8747,10 +8573,10 @@
     </row>
     <row r="90" spans="1:31" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
@@ -8758,10 +8584,10 @@
         <v>63</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
@@ -8772,10 +8598,10 @@
     <row r="93" spans="1:31" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="AC93" s="6" t="s">
         <v>68</v>
@@ -8783,23 +8609,23 @@
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="13" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
@@ -8807,22 +8633,22 @@
         <v>63</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="11"/>
       <c r="AA101" s="6" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="AB101" s="6" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="AD101" s="6" t="s">
         <v>68</v>
@@ -8830,23 +8656,23 @@
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="B105" s="13" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -8854,10 +8680,10 @@
         <v>63</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -8868,22 +8694,22 @@
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="AE110" s="6" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="AF110" s="6" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="AG110" s="6" t="s">
         <v>68</v>
@@ -8891,10 +8717,10 @@
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:32" ht="24" customHeight="1">
@@ -8902,10 +8728,10 @@
         <v>63</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:32" ht="24" customHeight="1">
@@ -8916,19 +8742,19 @@
     <row r="115" spans="1:32" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AC115" s="6" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="AD115" s="6" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="AE115" s="6" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="AF115" s="6" t="s">
         <v>68</v>
@@ -8936,20 +8762,20 @@
     </row>
     <row r="118" spans="1:32" ht="24" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="24" customHeight="1">
       <c r="B119" s="13" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:32" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>45</v>
@@ -8960,10 +8786,10 @@
         <v>46</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="24" customHeight="1">
@@ -8971,10 +8797,10 @@
     </row>
     <row r="125" spans="1:32" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="24" customHeight="1">
@@ -8982,24 +8808,24 @@
         <v>63</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AA127" s="6" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AD127" s="6" t="s">
         <v>68</v>
@@ -9007,10 +8833,10 @@
     </row>
     <row r="129" spans="1:32" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:32" ht="24" customHeight="1">
@@ -9018,10 +8844,10 @@
         <v>63</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="1:32" ht="24" customHeight="1">
@@ -9031,22 +8857,22 @@
     </row>
     <row r="132" spans="1:32" ht="24" customHeight="1">
       <c r="B132" s="11" t="s">
-        <v>584</v>
+        <v>414</v>
       </c>
       <c r="AA132" s="6" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="AB132" s="6" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="AC132" s="6" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="AD132" s="6" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="AE132" s="6" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="AF132" s="6" t="s">
         <v>68</v>
@@ -9054,21 +8880,21 @@
     </row>
     <row r="134" spans="1:32" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:32" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="136" spans="1:32" ht="24" customHeight="1">
@@ -9078,10 +8904,10 @@
     </row>
     <row r="138" spans="1:32" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="1:32" ht="24" customHeight="1">
@@ -9089,10 +8915,10 @@
         <v>63</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="140" spans="1:32" ht="24" customHeight="1">
@@ -9103,10 +8929,10 @@
     <row r="141" spans="1:32" ht="24" customHeight="1">
       <c r="B141" s="11"/>
       <c r="AA141" s="6" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="AC141" s="6" t="s">
         <v>68</v>
@@ -9114,23 +8940,23 @@
     </row>
     <row r="144" spans="1:32" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" spans="1:50" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:50" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="1:50" ht="24" customHeight="1">
@@ -9138,10 +8964,10 @@
         <v>63</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:50" ht="24" customHeight="1">
@@ -9152,34 +8978,34 @@
     <row r="150" spans="1:50" ht="24" customHeight="1">
       <c r="B150" s="11"/>
       <c r="AA150" s="6" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AB150" s="6" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="AE150" s="6" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AF150" s="6" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="AG150" s="6" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="AH150" s="6" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="AI150" s="6" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="AJ150" s="6" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="AK150" s="6" t="s">
         <v>68</v>
@@ -9187,10 +9013,10 @@
     </row>
     <row r="152" spans="1:50" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:50" ht="24" customHeight="1">
@@ -9198,10 +9024,10 @@
         <v>63</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:50" ht="24" customHeight="1">
@@ -9212,55 +9038,55 @@
     <row r="155" spans="1:50" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="6" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AB155" s="6" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AC155" s="6" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AD155" s="6" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="AE155" s="6" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="AF155" s="6" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="AG155" s="6" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="AI155" s="6" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="AJ155" s="6" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="AK155" s="6" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="AL155" s="6" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="AN155" s="6" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="AO155" s="6" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="AP155" s="6" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="AQ155" s="6" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="AR155" s="6" t="s">
         <v>68</v>
@@ -9268,10 +9094,10 @@
     </row>
     <row r="157" spans="1:50" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:50" ht="24" customHeight="1">
@@ -9279,10 +9105,10 @@
         <v>63</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
     </row>
     <row r="159" spans="1:50" ht="24" customHeight="1">
@@ -9293,73 +9119,73 @@
     <row r="160" spans="1:50" ht="24" customHeight="1">
       <c r="B160" s="11"/>
       <c r="AA160" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB160" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC160" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD160" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE160" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF160" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG160" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AH160" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI160" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AJ160" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK160" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL160" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AM160" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AN160" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AO160" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AP160" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ160" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR160" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AS160" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AB160" s="6" t="s">
+      <c r="AT160" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AC160" s="6" t="s">
+      <c r="AU160" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AD160" s="6" t="s">
+      <c r="AV160" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AE160" s="6" t="s">
+      <c r="AW160" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="AF160" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="AG160" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH160" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="AI160" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ160" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="AK160" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL160" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM160" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="AN160" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO160" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP160" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="AQ160" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="AR160" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="AS160" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="AT160" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="AU160" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV160" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="AW160" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="AX160" s="6" t="s">
         <v>68</v>
@@ -9367,23 +9193,23 @@
     </row>
     <row r="163" spans="1:34" ht="24" customHeight="1">
       <c r="A163" s="12" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="1:34" ht="24" customHeight="1">
       <c r="B164" s="13" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
     </row>
     <row r="166" spans="1:34" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="167" spans="1:34" ht="24" customHeight="1">
@@ -9391,10 +9217,10 @@
         <v>63</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="24" customHeight="1">
@@ -9405,25 +9231,25 @@
     <row r="169" spans="1:34" ht="24" customHeight="1">
       <c r="B169" s="11"/>
       <c r="AA169" s="6" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="AB169" s="6" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="AC169" s="6" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="AD169" s="6" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AE169" s="6" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="AF169" s="6" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="AG169" s="6" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="AH169" s="6" t="s">
         <v>68</v>
@@ -9431,10 +9257,10 @@
     </row>
     <row r="171" spans="1:34" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:34" ht="24" customHeight="1">
@@ -9442,10 +9268,10 @@
         <v>63</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
     </row>
     <row r="173" spans="1:34" ht="24" customHeight="1">
@@ -9456,19 +9282,19 @@
     <row r="174" spans="1:34" ht="24" customHeight="1">
       <c r="B174" s="11"/>
       <c r="AA174" s="6" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="AB174" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AC174" s="6" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="AD174" s="6" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="AE174" s="6" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="AF174" s="6" t="s">
         <v>68</v>
@@ -9476,23 +9302,23 @@
     </row>
     <row r="177" spans="1:31" ht="24" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="24" customHeight="1">
       <c r="B178" s="13" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
     </row>
     <row r="180" spans="1:31" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="24" customHeight="1">
@@ -9500,10 +9326,10 @@
         <v>63</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="182" spans="1:31" ht="24" customHeight="1">
@@ -9514,16 +9340,16 @@
     <row r="183" spans="1:31" ht="24" customHeight="1">
       <c r="B183" s="11"/>
       <c r="AA183" s="6" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="AE183" s="6" t="s">
         <v>68</v>
@@ -9531,10 +9357,10 @@
     </row>
     <row r="185" spans="1:31" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="24" customHeight="1">
@@ -9542,10 +9368,10 @@
         <v>63</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="1:31" ht="24" customHeight="1">
@@ -9556,10 +9382,10 @@
     <row r="188" spans="1:31" ht="24" customHeight="1">
       <c r="B188" s="11"/>
       <c r="AA188" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AB188" s="6" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="AC188" s="6" t="s">
         <v>68</v>
@@ -9567,23 +9393,23 @@
     </row>
     <row r="191" spans="1:31" ht="24" customHeight="1">
       <c r="A191" s="12" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="24" customHeight="1">
       <c r="B192" s="13" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
       <c r="A194" s="9" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
@@ -9591,22 +9417,22 @@
         <v>63</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" spans="1:33" ht="24" customHeight="1">
       <c r="B196" s="11"/>
       <c r="AA196" s="6" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="AB196" s="6" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="AC196" s="6" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="AD196" s="6" t="s">
         <v>68</v>
@@ -9614,23 +9440,23 @@
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
       <c r="B200" s="13" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -9638,10 +9464,10 @@
         <v>63</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -9652,22 +9478,22 @@
     <row r="205" spans="1:33" ht="24" customHeight="1">
       <c r="B205" s="11"/>
       <c r="AA205" s="6" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="AF205" s="6" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="AG205" s="6" t="s">
         <v>68</v>
@@ -9675,10 +9501,10 @@
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -9686,10 +9512,10 @@
         <v>63</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
     </row>
     <row r="209" spans="2:32" ht="24" customHeight="1">
@@ -9700,19 +9526,19 @@
     <row r="210" spans="2:32" ht="24" customHeight="1">
       <c r="B210" s="11"/>
       <c r="AA210" s="6" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="AB210" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AC210" s="6" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="AD210" s="6" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="AE210" s="6" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="AF210" s="6" t="s">
         <v>68</v>
@@ -9840,20 +9666,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -9864,10 +9690,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -9875,7 +9701,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -9886,10 +9712,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -9902,23 +9728,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="24" customHeight="1">
@@ -9926,22 +9752,22 @@
         <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="AD19" s="6" t="s">
         <v>68</v>
@@ -9949,10 +9775,10 @@
     </row>
     <row r="21" spans="1:37" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="24" customHeight="1">
@@ -9960,10 +9786,10 @@
         <v>63</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="24" customHeight="1">
@@ -9973,37 +9799,37 @@
     </row>
     <row r="24" spans="1:37" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="AK24" s="6" t="s">
         <v>68</v>
@@ -10011,21 +9837,21 @@
     </row>
     <row r="26" spans="1:37" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="24" customHeight="1">
@@ -10033,21 +9859,21 @@
     </row>
     <row r="30" spans="1:37" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="24" customHeight="1">
@@ -10057,23 +9883,23 @@
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
@@ -10081,23 +9907,23 @@
         <v>46</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -10105,10 +9931,10 @@
         <v>63</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
@@ -10118,16 +9944,16 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>68</v>
@@ -10135,10 +9961,10 @@
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
@@ -10146,10 +9972,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="24" customHeight="1">
@@ -10159,22 +9985,22 @@
     </row>
     <row r="50" spans="1:36" ht="24" customHeight="1">
       <c r="B50" s="11" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>692</v>
+        <v>415</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="AF50" s="6" t="s">
         <v>68</v>
@@ -10182,10 +10008,10 @@
     </row>
     <row r="52" spans="1:36" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="24" customHeight="1">
@@ -10193,10 +10019,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="24" customHeight="1">
@@ -10206,34 +10032,34 @@
     </row>
     <row r="55" spans="1:36" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AJ55" s="6" t="s">
         <v>68</v>
@@ -10241,34 +10067,34 @@
     </row>
     <row r="56" spans="1:36" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AE56" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF56" s="6" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AI56" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AJ56" s="6" t="s">
         <v>68</v>
@@ -10276,34 +10102,34 @@
     </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AE57" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF57" s="6" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AI57" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AJ57" s="6" t="s">
         <v>68</v>
@@ -10311,34 +10137,34 @@
     </row>
     <row r="58" spans="1:36" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>712</v>
+        <v>683</v>
       </c>
       <c r="AA58" s="6" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AE58" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF58" s="6" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AI58" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AJ58" s="6" t="s">
         <v>68</v>
@@ -10346,34 +10172,34 @@
     </row>
     <row r="59" spans="1:36" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="AA59" s="6" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="AB59" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AD59" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AE59" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF59" s="6" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AH59" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AI59" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AJ59" s="6" t="s">
         <v>68</v>
@@ -10381,34 +10207,34 @@
     </row>
     <row r="60" spans="1:36" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="AA60" s="6" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AJ60" s="6" t="s">
         <v>68</v>
@@ -10416,34 +10242,34 @@
     </row>
     <row r="61" spans="1:36" ht="24" customHeight="1">
       <c r="B61" s="11" t="s">
-        <v>715</v>
+        <v>680</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AE61" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF61" s="6" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="AH61" s="6" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="AI61" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AJ61" s="6" t="s">
         <v>68</v>
@@ -10451,10 +10277,10 @@
     </row>
     <row r="63" spans="1:36" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="24" customHeight="1">
@@ -10462,10 +10288,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -10476,13 +10302,13 @@
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11"/>
       <c r="AA66" s="6" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>68</v>
@@ -10490,23 +10316,23 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -10514,10 +10340,10 @@
         <v>46</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -10525,10 +10351,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -10536,10 +10362,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -10550,10 +10376,10 @@
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>68</v>
@@ -10561,10 +10387,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -10572,24 +10398,24 @@
         <v>63</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>68</v>
@@ -10597,10 +10423,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>740</v>
+        <v>711</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -10608,10 +10434,10 @@
         <v>63</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -10622,19 +10448,19 @@
     <row r="88" spans="1:32" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="AF88" s="6" t="s">
         <v>68</v>
@@ -10642,10 +10468,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -10653,10 +10479,10 @@
         <v>63</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -10667,13 +10493,13 @@
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="AD93" s="6" t="s">
         <v>68</v>
@@ -10742,7 +10568,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD41"/>
+  <dimension ref="A1:XFD38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10756,20 +10582,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>747</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -10780,10 +10606,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -10791,7 +10617,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -10802,10 +10628,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -10818,23 +10644,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>756</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -10842,23 +10668,23 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>760</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>762</v>
+        <v>733</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>763</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -10866,10 +10692,10 @@
         <v>63</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>764</v>
+        <v>735</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>765</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -10879,19 +10705,19 @@
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>766</v>
+        <v>737</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="AE24" s="6" t="s">
         <v>68</v>
@@ -10899,19 +10725,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>68</v>
@@ -10919,23 +10745,23 @@
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>775</v>
+        <v>744</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -10943,23 +10769,23 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
@@ -10967,10 +10793,10 @@
         <v>63</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>781</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
@@ -10979,135 +10805,37 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
-      <c r="B38" s="11" t="s">
-        <v>782</v>
-      </c>
+      <c r="B38" s="11"/>
       <c r="AA38" s="6" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="AI38" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="AI39" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" ht="24" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA40" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="AD40" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="AE40" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="AF40" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="AG40" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="AH40" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="AI40" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="AA41" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="AC41" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="AD41" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="AE41" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="AF41" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="AG41" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="AH41" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="AI41" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AE24</formula1>
     </dataValidation>
@@ -11116,15 +10844,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>AA38:AI38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AI39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>AA40:AI40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>AA41:AI41</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11147,20 +10866,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>797</v>
+        <v>762</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -11171,10 +10890,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -11182,7 +10901,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -11193,10 +10912,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -11209,10 +10928,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -11220,10 +10939,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>804</v>
+        <v>769</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -11234,10 +10953,10 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>807</v>
+        <v>772</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>68</v>
@@ -11245,10 +10964,10 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>809</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
@@ -11256,23 +10975,23 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>811</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>812</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>813</v>
+        <v>778</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -11280,10 +10999,10 @@
         <v>63</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>814</v>
+        <v>779</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>815</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -11293,16 +11012,16 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>817</v>
+        <v>782</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>68</v>
@@ -11310,10 +11029,10 @@
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>818</v>
+        <v>783</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
@@ -11321,10 +11040,10 @@
         <v>63</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>819</v>
+        <v>784</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -11335,25 +11054,25 @@
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>821</v>
+        <v>786</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>822</v>
+        <v>787</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>824</v>
+        <v>522</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="AH30" s="6" t="s">
         <v>68</v>
@@ -11361,10 +11080,10 @@
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>826</v>
+        <v>790</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -11372,10 +11091,10 @@
         <v>63</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -11386,43 +11105,43 @@
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>832</v>
+        <v>796</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>833</v>
+        <v>797</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>837</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>838</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>840</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -11430,25 +11149,25 @@
         <v>63</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="B43" s="11"/>
       <c r="AA43" s="6" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>844</v>
+        <v>808</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>845</v>
+        <v>809</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
       <c r="AE43" s="6" t="s">
         <v>68</v>
@@ -11456,10 +11175,10 @@
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
@@ -11467,10 +11186,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>848</v>
+        <v>812</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -11478,23 +11197,23 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>850</v>
+        <v>814</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>852</v>
+        <v>816</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
@@ -11502,29 +11221,29 @@
         <v>63</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>855</v>
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>856</v>
+        <v>772</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>807</v>
+        <v>772</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>857</v>
+        <v>820</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>858</v>
+        <v>821</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
@@ -11532,34 +11251,34 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>859</v>
+        <v>822</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>860</v>
+        <v>823</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>861</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>862</v>
+        <v>825</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>865</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
@@ -11569,10 +11288,10 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
@@ -11580,10 +11299,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>868</v>
+        <v>831</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>869</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
@@ -11593,37 +11312,37 @@
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>870</v>
+        <v>833</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>872</v>
+        <v>834</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>873</v>
+        <v>835</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>874</v>
+        <v>836</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>875</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>876</v>
+        <v>838</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -11631,27 +11350,27 @@
         <v>63</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>879</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>807</v>
+        <v>772</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>880</v>
+        <v>842</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>858</v>
+        <v>821</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
@@ -11659,10 +11378,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>881</v>
+        <v>843</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>882</v>
+        <v>844</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -11670,21 +11389,21 @@
     </row>
     <row r="82" spans="1:29" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>883</v>
+        <v>845</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>884</v>
+        <v>846</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="24" customHeight="1">
@@ -11692,10 +11411,10 @@
     </row>
     <row r="86" spans="1:29" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>886</v>
+        <v>848</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
@@ -11703,10 +11422,10 @@
         <v>63</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>887</v>
+        <v>849</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>888</v>
+        <v>850</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
@@ -11717,13 +11436,13 @@
     <row r="89" spans="1:29" ht="24" customHeight="1">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>872</v>
+        <v>834</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>873</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
